--- a/110.Schedule.xlsx
+++ b/110.Schedule.xlsx
@@ -167,26 +167,10 @@
     <t>ALL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <t>2. Figure out which functions are required.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.0"/>
-      </rPr>
-      <t xml:space="preserve">       </t>
-    </r>
-    <r>
-      <t>3. Draw a prototype for what our baseline product will look like.</t>
-    </r>
+    <t xml:space="preserve">       2. Figure out which functions are required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       3. Draw a prototype for what our baseline product will look like.</t>
   </si>
   <si>
     <t>Scaffolding for Create Account Page</t>
@@ -433,7 +417,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +482,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -624,112 +602,51 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="8" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="8" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="5" fontId="3" numFmtId="14" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="9" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,110 +656,40 @@
     <xf borderId="9" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="10" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="8" fillId="9" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="10" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="10" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="8" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="9" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="8" fillId="11" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="11" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="6" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="12" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="13" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="13" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf borderId="6" fillId="13" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -860,14 +707,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
     <col customWidth="1" min="2" max="2" width="77.14"/>
     <col customWidth="1" min="3" max="3" width="20.29"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
     <col customWidth="1" min="7" max="7" width="20.43"/>
+    <col customWidth="1" min="8" max="26" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +730,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="9"/>
@@ -889,7 +739,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
@@ -906,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
@@ -917,7 +767,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>7</v>
@@ -928,7 +778,7 @@
       <c r="F5" s="22"/>
       <c r="G5" s="21"/>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="19"/>
       <c r="B6" s="23" t="s">
         <v>8</v>
@@ -941,7 +791,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="26"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="19"/>
       <c r="B7" s="23" t="s">
         <v>10</v>
@@ -954,7 +804,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="23" t="s">
         <v>11</v>
@@ -967,7 +817,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="26"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="19"/>
       <c r="B9" s="23" t="s">
         <v>12</v>
@@ -980,7 +830,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="19"/>
       <c r="B10" s="20" t="s">
         <v>13</v>
@@ -991,7 +841,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="19"/>
       <c r="B11" s="23" t="s">
         <v>14</v>
@@ -1004,7 +854,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="26"/>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="23" t="s">
         <v>15</v>
@@ -1017,7 +867,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="26"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="23" t="s">
         <v>16</v>
@@ -1030,7 +880,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="26"/>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="27" t="s">
         <v>17</v>
@@ -1043,7 +893,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="26"/>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
         <v>18</v>
@@ -1054,7 +904,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="21"/>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="23" t="s">
         <v>19</v>
@@ -1067,7 +917,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="26"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="23" t="s">
         <v>21</v>
@@ -1080,7 +930,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="26"/>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="23" t="s">
         <v>22</v>
@@ -1089,11 +939,11 @@
         <v>20</v>
       </c>
       <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="26"/>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="23" t="s">
         <v>23</v>
@@ -1106,7 +956,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="26"/>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="19"/>
       <c r="B20" s="23" t="s">
         <v>24</v>
@@ -1119,7 +969,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="26"/>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="19"/>
       <c r="B21" s="23" t="s">
         <v>25</v>
@@ -1132,7 +982,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="26"/>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="23" t="s">
         <v>26</v>
@@ -1145,8 +995,8 @@
       <c r="F22" s="5"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23">
-      <c r="A23" s="29"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="28"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="9"/>
@@ -1154,34 +1004,34 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24">
-      <c r="A24" s="30" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="35"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="21"/>
     </row>
-    <row r="26">
-      <c r="A26" s="33"/>
-      <c r="B26" s="36" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="32"/>
+      <c r="B26" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="25"/>
@@ -1189,12 +1039,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27">
-      <c r="A27" s="33"/>
-      <c r="B27" s="38" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="25"/>
@@ -1202,12 +1052,12 @@
       <c r="F27" s="5"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28">
-      <c r="A28" s="33"/>
-      <c r="B28" s="38" t="s">
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="25"/>
@@ -1215,12 +1065,12 @@
       <c r="F28" s="5"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29">
-      <c r="A29" s="33"/>
-      <c r="B29" s="38" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="25"/>
@@ -1228,12 +1078,12 @@
       <c r="F29" s="5"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30">
-      <c r="A30" s="33"/>
-      <c r="B30" s="38" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="32"/>
+      <c r="B30" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="25"/>
@@ -1241,9 +1091,9 @@
       <c r="F30" s="5"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="31">
-      <c r="A31" s="33"/>
-      <c r="B31" s="39" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="36" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="21"/>
@@ -1252,9 +1102,9 @@
       <c r="F31" s="22"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="32">
-      <c r="A32" s="33"/>
-      <c r="B32" s="36" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="32"/>
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C32" s="24" t="s">
@@ -1265,9 +1115,9 @@
       <c r="F32" s="5"/>
       <c r="G32" s="26"/>
     </row>
-    <row r="33">
-      <c r="A33" s="33"/>
-      <c r="B33" s="36" t="s">
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="24" t="s">
@@ -1278,9 +1128,9 @@
       <c r="F33" s="5"/>
       <c r="G33" s="26"/>
     </row>
-    <row r="34">
-      <c r="A34" s="33"/>
-      <c r="B34" s="36" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="32"/>
+      <c r="B34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -1291,9 +1141,9 @@
       <c r="F34" s="5"/>
       <c r="G34" s="26"/>
     </row>
-    <row r="35">
-      <c r="A35" s="33"/>
-      <c r="B35" s="36" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="32"/>
+      <c r="B35" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C35" s="26"/>
@@ -1302,8 +1152,8 @@
       <c r="F35" s="5"/>
       <c r="G35" s="26"/>
     </row>
-    <row r="36">
-      <c r="A36" s="33"/>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="32"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="25"/>
@@ -1311,8 +1161,8 @@
       <c r="F36" s="5"/>
       <c r="G36" s="26"/>
     </row>
-    <row r="37">
-      <c r="A37" s="33"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="32"/>
       <c r="B37" s="20" t="s">
         <v>41</v>
       </c>
@@ -1322,9 +1172,9 @@
       <c r="F37" s="22"/>
       <c r="G37" s="21"/>
     </row>
-    <row r="38">
-      <c r="A38" s="33"/>
-      <c r="B38" s="36" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="32"/>
+      <c r="B38" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="24" t="s">
@@ -1335,9 +1185,9 @@
       <c r="F38" s="5"/>
       <c r="G38" s="26"/>
     </row>
-    <row r="39">
-      <c r="A39" s="33"/>
-      <c r="B39" s="36" t="s">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="32"/>
+      <c r="B39" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -1348,8 +1198,8 @@
       <c r="F39" s="5"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40">
-      <c r="A40" s="33"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="32"/>
       <c r="B40" s="23" t="s">
         <v>44</v>
       </c>
@@ -1361,8 +1211,8 @@
       <c r="F40" s="5"/>
       <c r="G40" s="26"/>
     </row>
-    <row r="41">
-      <c r="A41" s="33"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="32"/>
       <c r="B41" s="23" t="s">
         <v>45</v>
       </c>
@@ -1374,8 +1224,8 @@
       <c r="F41" s="5"/>
       <c r="G41" s="26"/>
     </row>
-    <row r="42">
-      <c r="A42" s="33"/>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="32"/>
       <c r="B42" s="23" t="s">
         <v>46</v>
       </c>
@@ -1387,8 +1237,8 @@
       <c r="F42" s="5"/>
       <c r="G42" s="26"/>
     </row>
-    <row r="43">
-      <c r="A43" s="33"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="32"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="5"/>
@@ -1396,20 +1246,20 @@
       <c r="F43" s="5"/>
       <c r="G43" s="26"/>
     </row>
-    <row r="44">
-      <c r="A44" s="40" t="s">
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="41"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="43"/>
-      <c r="B45" s="44" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="40"/>
+      <c r="B45" s="20" t="s">
         <v>48</v>
       </c>
       <c r="C45" s="21"/>
@@ -1418,12 +1268,12 @@
       <c r="F45" s="22"/>
       <c r="G45" s="21"/>
     </row>
-    <row r="46">
-      <c r="A46" s="43"/>
-      <c r="B46" s="45" t="s">
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="40"/>
+      <c r="B46" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="25"/>
@@ -1431,12 +1281,12 @@
       <c r="F46" s="5"/>
       <c r="G46" s="26"/>
     </row>
-    <row r="47">
-      <c r="A47" s="43"/>
-      <c r="B47" s="45" t="s">
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="40"/>
+      <c r="B47" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="25"/>
@@ -1444,12 +1294,12 @@
       <c r="F47" s="5"/>
       <c r="G47" s="26"/>
     </row>
-    <row r="48">
-      <c r="A48" s="43"/>
-      <c r="B48" s="47" t="s">
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="40"/>
+      <c r="B48" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="46" t="s">
+      <c r="C48" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="25"/>
@@ -1457,18 +1307,18 @@
       <c r="F48" s="5"/>
       <c r="G48" s="26"/>
     </row>
-    <row r="49">
-      <c r="A49" s="43"/>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="40"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="37"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="25"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="26"/>
     </row>
-    <row r="50">
-      <c r="A50" s="43"/>
-      <c r="B50" s="34" t="s">
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="40"/>
+      <c r="B50" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="21"/>
@@ -1477,9 +1327,9 @@
       <c r="F50" s="22"/>
       <c r="G50" s="21"/>
     </row>
-    <row r="51">
-      <c r="A51" s="43"/>
-      <c r="B51" s="36" t="s">
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="40"/>
+      <c r="B51" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="24" t="s">
@@ -1490,9 +1340,9 @@
       <c r="F51" s="5"/>
       <c r="G51" s="26"/>
     </row>
-    <row r="52">
-      <c r="A52" s="43"/>
-      <c r="B52" s="36" t="s">
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="40"/>
+      <c r="B52" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="24" t="s">
@@ -1503,9 +1353,9 @@
       <c r="F52" s="5"/>
       <c r="G52" s="26"/>
     </row>
-    <row r="53">
-      <c r="A53" s="43"/>
-      <c r="B53" s="36" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="40"/>
+      <c r="B53" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="24" t="s">
@@ -1516,29 +1366,29 @@
       <c r="F53" s="22"/>
       <c r="G53" s="21"/>
     </row>
-    <row r="54">
-      <c r="A54" s="41"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="50" t="s">
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="38"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="51"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="53"/>
-      <c r="B56" s="44" t="s">
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="44"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="46"/>
+      <c r="B56" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C56" s="21"/>
@@ -1547,12 +1397,12 @@
       <c r="F56" s="22"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57">
-      <c r="A57" s="53"/>
-      <c r="B57" s="36" t="s">
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="46"/>
+      <c r="B57" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="25"/>
@@ -1560,12 +1410,12 @@
       <c r="F57" s="5"/>
       <c r="G57" s="26"/>
     </row>
-    <row r="58">
-      <c r="A58" s="53"/>
-      <c r="B58" s="36" t="s">
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="46"/>
+      <c r="B58" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="25"/>
@@ -1573,12 +1423,12 @@
       <c r="F58" s="5"/>
       <c r="G58" s="26"/>
     </row>
-    <row r="59">
-      <c r="A59" s="53"/>
-      <c r="B59" s="36" t="s">
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="46"/>
+      <c r="B59" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="25"/>
@@ -1586,22 +1436,22 @@
       <c r="F59" s="5"/>
       <c r="G59" s="26"/>
     </row>
-    <row r="60">
-      <c r="A60" s="53"/>
-      <c r="B60" s="36" t="s">
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="46"/>
+      <c r="B60" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D60" s="25"/>
-      <c r="E60" s="49"/>
+      <c r="E60" s="42"/>
       <c r="F60" s="5"/>
       <c r="G60" s="26"/>
     </row>
-    <row r="61">
-      <c r="A61" s="53"/>
-      <c r="B61" s="34" t="s">
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="46"/>
+      <c r="B61" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C61" s="21"/>
@@ -1610,9 +1460,9 @@
       <c r="F61" s="22"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62">
-      <c r="A62" s="53"/>
-      <c r="B62" s="36" t="s">
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="46"/>
+      <c r="B62" s="23" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="24" t="s">
@@ -1623,9 +1473,9 @@
       <c r="F62" s="5"/>
       <c r="G62" s="26"/>
     </row>
-    <row r="63">
-      <c r="A63" s="53"/>
-      <c r="B63" s="36" t="s">
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="46"/>
+      <c r="B63" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C63" s="24" t="s">
@@ -1636,9 +1486,9 @@
       <c r="F63" s="5"/>
       <c r="G63" s="26"/>
     </row>
-    <row r="64">
-      <c r="A64" s="53"/>
-      <c r="B64" s="36" t="s">
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="46"/>
+      <c r="B64" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C64" s="24" t="s">
@@ -1649,9 +1499,9 @@
       <c r="F64" s="5"/>
       <c r="G64" s="26"/>
     </row>
-    <row r="65">
-      <c r="A65" s="53"/>
-      <c r="B65" s="36" t="s">
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="46"/>
+      <c r="B65" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="24" t="s">
@@ -1662,9 +1512,9 @@
       <c r="F65" s="5"/>
       <c r="G65" s="26"/>
     </row>
-    <row r="66">
-      <c r="A66" s="53"/>
-      <c r="B66" s="36" t="s">
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="46"/>
+      <c r="B66" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C66" s="24" t="s">
@@ -1675,9 +1525,9 @@
       <c r="F66" s="5"/>
       <c r="G66" s="26"/>
     </row>
-    <row r="67">
-      <c r="A67" s="53"/>
-      <c r="B67" s="36" t="s">
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="46"/>
+      <c r="B67" s="23" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="24" t="s">
@@ -1688,9 +1538,9 @@
       <c r="F67" s="5"/>
       <c r="G67" s="26"/>
     </row>
-    <row r="68">
-      <c r="A68" s="53"/>
-      <c r="B68" s="36" t="s">
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="46"/>
+      <c r="B68" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C68" s="24" t="s">
@@ -1701,25 +1551,26 @@
       <c r="F68" s="5"/>
       <c r="G68" s="26"/>
     </row>
-    <row r="69">
-      <c r="A69" s="54"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="56" t="s">
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="47"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="G69" s="49"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="57"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="57"/>
-      <c r="B71" s="34" t="s">
+      <c r="B70" s="51"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="51"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="21"/>
@@ -1728,12 +1579,12 @@
       <c r="F71" s="22"/>
       <c r="G71" s="21"/>
     </row>
-    <row r="72">
-      <c r="A72" s="57"/>
-      <c r="B72" s="59" t="s">
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="51"/>
+      <c r="B72" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="25"/>
@@ -1741,12 +1592,12 @@
       <c r="F72" s="5"/>
       <c r="G72" s="26"/>
     </row>
-    <row r="73">
-      <c r="A73" s="57"/>
-      <c r="B73" s="59" t="s">
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="51"/>
+      <c r="B73" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D73" s="25"/>
@@ -1754,12 +1605,12 @@
       <c r="F73" s="5"/>
       <c r="G73" s="26"/>
     </row>
-    <row r="74">
-      <c r="A74" s="57"/>
-      <c r="B74" s="36" t="s">
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="51"/>
+      <c r="B74" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="25"/>
@@ -1767,12 +1618,12 @@
       <c r="F74" s="5"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75">
-      <c r="A75" s="57"/>
-      <c r="B75" s="36" t="s">
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="51"/>
+      <c r="B75" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="37" t="s">
+      <c r="C75" s="34" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="25"/>
@@ -1780,9 +1631,9 @@
       <c r="F75" s="5"/>
       <c r="G75" s="26"/>
     </row>
-    <row r="76">
-      <c r="A76" s="57"/>
-      <c r="B76" s="44" t="s">
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="51"/>
+      <c r="B76" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="21"/>
@@ -1791,107 +1642,107 @@
       <c r="F76" s="22"/>
       <c r="G76" s="21"/>
     </row>
-    <row r="77">
-      <c r="A77" s="57"/>
-      <c r="B77" s="45" t="s">
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="51"/>
+      <c r="B77" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="60"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="26"/>
     </row>
-    <row r="78">
-      <c r="A78" s="57"/>
-      <c r="B78" s="45" t="s">
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="51"/>
+      <c r="B78" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D78" s="60"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79">
-      <c r="A79" s="57"/>
-      <c r="B79" s="45" t="s">
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="51"/>
+      <c r="B79" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="60"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="26"/>
     </row>
-    <row r="80">
-      <c r="A80" s="57"/>
-      <c r="B80" s="45" t="s">
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="51"/>
+      <c r="B80" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="60"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="26"/>
     </row>
-    <row r="81">
-      <c r="A81" s="57"/>
-      <c r="B81" s="45" t="s">
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="51"/>
+      <c r="B81" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="60"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="26"/>
     </row>
-    <row r="82">
-      <c r="A82" s="57"/>
-      <c r="B82" s="45" t="s">
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="51"/>
+      <c r="B82" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="60"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="26"/>
     </row>
-    <row r="83">
-      <c r="A83" s="57"/>
-      <c r="B83" s="45"/>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="51"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="24"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
       <c r="G83" s="26"/>
     </row>
-    <row r="84">
-      <c r="A84" s="61" t="s">
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="62"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="62"/>
-      <c r="B85" s="34" t="s">
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="54"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="54"/>
+      <c r="B85" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C85" s="21"/>
@@ -1900,61 +1751,61 @@
       <c r="F85" s="22"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86">
-      <c r="A86" s="62"/>
-      <c r="B86" s="59" t="s">
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="54"/>
+      <c r="B86" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="56"/>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
       <c r="G86" s="26"/>
     </row>
-    <row r="87">
-      <c r="A87" s="62"/>
-      <c r="B87" s="59" t="s">
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="54"/>
+      <c r="B87" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="56"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="26"/>
     </row>
-    <row r="88">
-      <c r="A88" s="62"/>
-      <c r="B88" s="36" t="s">
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="54"/>
+      <c r="B88" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="56"/>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="26"/>
     </row>
-    <row r="89">
-      <c r="A89" s="62"/>
-      <c r="B89" s="36" t="s">
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="54"/>
+      <c r="B89" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="56"/>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
       <c r="G89" s="26"/>
     </row>
-    <row r="90">
-      <c r="A90" s="62"/>
-      <c r="B90" s="44" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="54"/>
+      <c r="B90" s="20" t="s">
         <v>85</v>
       </c>
       <c r="C90" s="21"/>
@@ -1963,96 +1814,96 @@
       <c r="F90" s="22"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91">
-      <c r="A91" s="62"/>
-      <c r="B91" s="45" t="s">
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="54"/>
+      <c r="B91" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C91" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="56"/>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
       <c r="G91" s="26"/>
     </row>
-    <row r="92">
-      <c r="A92" s="62"/>
-      <c r="B92" s="45" t="s">
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="54"/>
+      <c r="B92" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="56"/>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="26"/>
     </row>
-    <row r="93">
-      <c r="A93" s="62"/>
-      <c r="B93" s="45" t="s">
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="54"/>
+      <c r="B93" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="5"/>
+      <c r="D93" s="56"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
       <c r="G93" s="26"/>
     </row>
-    <row r="94">
-      <c r="A94" s="62"/>
-      <c r="B94" s="45" t="s">
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="54"/>
+      <c r="B94" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="5"/>
+      <c r="D94" s="56"/>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
       <c r="G94" s="26"/>
     </row>
-    <row r="95">
-      <c r="A95" s="62"/>
-      <c r="B95" s="45" t="s">
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="54"/>
+      <c r="B95" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D95" s="5"/>
+      <c r="D95" s="56"/>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
       <c r="G95" s="26"/>
     </row>
-    <row r="96">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65" t="s">
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="57"/>
+      <c r="B96" s="58" t="s">
         <v>91</v>
       </c>
       <c r="C96" s="10"/>
-      <c r="D96" s="9"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="G96" s="10"/>
     </row>
-    <row r="97">
-      <c r="A97" s="66" t="s">
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B97" s="67"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="67"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="67"/>
-      <c r="B98" s="44" t="s">
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="61"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="61"/>
+      <c r="B98" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C98" s="21"/>
@@ -2061,61 +1912,61 @@
       <c r="F98" s="22"/>
       <c r="G98" s="21"/>
     </row>
-    <row r="99">
-      <c r="A99" s="67"/>
-      <c r="B99" s="47" t="s">
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="61"/>
+      <c r="B99" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="56"/>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
       <c r="G99" s="26"/>
     </row>
-    <row r="100">
-      <c r="A100" s="67"/>
-      <c r="B100" s="47" t="s">
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="61"/>
+      <c r="B100" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="37" t="s">
+      <c r="C100" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="56"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
       <c r="G100" s="26"/>
     </row>
-    <row r="101">
-      <c r="A101" s="67"/>
-      <c r="B101" s="45" t="s">
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="61"/>
+      <c r="B101" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="37" t="s">
+      <c r="C101" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D101" s="5"/>
+      <c r="D101" s="56"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
       <c r="G101" s="26"/>
     </row>
-    <row r="102">
-      <c r="A102" s="67"/>
-      <c r="B102" s="45" t="s">
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="61"/>
+      <c r="B102" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C102" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="5"/>
+      <c r="D102" s="56"/>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="26"/>
     </row>
-    <row r="103">
-      <c r="A103" s="67"/>
-      <c r="B103" s="44" t="s">
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="61"/>
+      <c r="B103" s="20" t="s">
         <v>98</v>
       </c>
       <c r="C103" s="21"/>
@@ -2124,98 +1975,98 @@
       <c r="F103" s="22"/>
       <c r="G103" s="21"/>
     </row>
-    <row r="104">
-      <c r="A104" s="67"/>
-      <c r="B104" s="45" t="s">
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="61"/>
+      <c r="B104" s="23" t="s">
         <v>99</v>
       </c>
       <c r="C104" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="5"/>
+      <c r="D104" s="56"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
       <c r="G104" s="26"/>
     </row>
-    <row r="105">
-      <c r="A105" s="67"/>
-      <c r="B105" s="45" t="s">
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="61"/>
+      <c r="B105" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C105" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="5"/>
+      <c r="D105" s="56"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="26"/>
     </row>
-    <row r="106">
-      <c r="A106" s="67"/>
-      <c r="B106" s="36" t="s">
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="61"/>
+      <c r="B106" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C106" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D106" s="5"/>
+      <c r="D106" s="56"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="26"/>
     </row>
-    <row r="107">
-      <c r="A107" s="67"/>
-      <c r="B107" s="45" t="s">
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="61"/>
+      <c r="B107" s="23" t="s">
         <v>101</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="5"/>
+      <c r="D107" s="56"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="26"/>
     </row>
-    <row r="108">
-      <c r="A108" s="67"/>
-      <c r="B108" s="45" t="s">
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="61"/>
+      <c r="B108" s="23" t="s">
         <v>102</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D108" s="5"/>
+      <c r="D108" s="56"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="26"/>
     </row>
-    <row r="109">
-      <c r="A109" s="69"/>
-      <c r="B109" s="65" t="s">
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="63"/>
+      <c r="B109" s="58" t="s">
         <v>103</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="9"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
       <c r="G109" s="10"/>
     </row>
-    <row r="110">
-      <c r="A110" s="70" t="s">
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B110" s="71"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="F110" s="72"/>
-      <c r="G110" s="71"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="71"/>
-      <c r="B111" s="44" t="s">
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="65"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="65"/>
+      <c r="B111" s="20" t="s">
         <v>105</v>
       </c>
       <c r="C111" s="21"/>
@@ -2224,111 +2075,111 @@
       <c r="F111" s="22"/>
       <c r="G111" s="21"/>
     </row>
-    <row r="112">
-      <c r="A112" s="71"/>
-      <c r="B112" s="47" t="s">
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="65"/>
+      <c r="B112" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D112" s="5"/>
+      <c r="D112" s="56"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="26"/>
     </row>
-    <row r="113">
-      <c r="A113" s="71"/>
-      <c r="B113" s="47" t="s">
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="65"/>
+      <c r="B113" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D113" s="5"/>
+      <c r="D113" s="56"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="26"/>
     </row>
-    <row r="114">
-      <c r="A114" s="71"/>
-      <c r="B114" s="45" t="s">
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="65"/>
+      <c r="B114" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="37" t="s">
+      <c r="C114" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D114" s="5"/>
+      <c r="D114" s="56"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="26"/>
     </row>
-    <row r="115">
-      <c r="A115" s="71"/>
-      <c r="B115" s="44" t="s">
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="65"/>
+      <c r="B115" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C115" s="73"/>
+      <c r="C115" s="67"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
       <c r="G115" s="21"/>
     </row>
-    <row r="116">
-      <c r="A116" s="71"/>
-      <c r="B116" s="45" t="s">
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="65"/>
+      <c r="B116" s="23" t="s">
         <v>110</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D116" s="5"/>
+      <c r="D116" s="56"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="26"/>
     </row>
-    <row r="117">
-      <c r="A117" s="71"/>
-      <c r="B117" s="45" t="s">
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="65"/>
+      <c r="B117" s="23" t="s">
         <v>111</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D117" s="5"/>
+      <c r="D117" s="56"/>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="26"/>
     </row>
-    <row r="118">
-      <c r="A118" s="71"/>
-      <c r="B118" s="45" t="s">
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="65"/>
+      <c r="B118" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D118" s="5"/>
+      <c r="D118" s="56"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="26"/>
     </row>
-    <row r="119">
-      <c r="A119" s="71"/>
-      <c r="B119" s="45" t="s">
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="65"/>
+      <c r="B119" s="23" t="s">
         <v>113</v>
       </c>
       <c r="C119" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="5"/>
+      <c r="D119" s="56"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="26"/>
     </row>
-    <row r="120">
-      <c r="A120" s="71"/>
-      <c r="B120" s="44" t="s">
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="65"/>
+      <c r="B120" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C120" s="21"/>
@@ -2337,79 +2188,4449 @@
       <c r="F120" s="22"/>
       <c r="G120" s="21"/>
     </row>
-    <row r="121">
-      <c r="A121" s="71"/>
-      <c r="B121" s="45" t="s">
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="65"/>
+      <c r="B121" s="23" t="s">
         <v>115</v>
       </c>
       <c r="C121" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D121" s="5"/>
+      <c r="D121" s="56"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="26"/>
     </row>
-    <row r="122">
-      <c r="A122" s="71"/>
-      <c r="B122" s="45" t="s">
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="65"/>
+      <c r="B122" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D122" s="5"/>
+      <c r="D122" s="56"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="26"/>
     </row>
-    <row r="123">
-      <c r="A123" s="71"/>
-      <c r="B123" s="45" t="s">
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="65"/>
+      <c r="B123" s="23" t="s">
         <v>117</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="5"/>
+      <c r="D123" s="56"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="26"/>
     </row>
-    <row r="124">
-      <c r="A124" s="71"/>
-      <c r="B124" s="45" t="s">
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="65"/>
+      <c r="B124" s="23" t="s">
         <v>118</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="5"/>
+      <c r="D124" s="56"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="26"/>
     </row>
-    <row r="125">
-      <c r="A125" s="71"/>
-      <c r="B125" s="45" t="s">
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="65"/>
+      <c r="B125" s="23" t="s">
         <v>119</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D125" s="5"/>
+      <c r="D125" s="56"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="26"/>
     </row>
-    <row r="126">
-      <c r="A126" s="74"/>
-      <c r="B126" s="75"/>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="68"/>
+      <c r="B126" s="58"/>
       <c r="C126" s="10"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
       <c r="G126" s="10"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="B127" s="49"/>
+      <c r="C127" s="49"/>
+      <c r="G127" s="49"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="G128" s="49"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="B129" s="49"/>
+      <c r="C129" s="49"/>
+      <c r="G129" s="49"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="G130" s="49"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="B131" s="49"/>
+      <c r="C131" s="49"/>
+      <c r="G131" s="49"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="G132" s="49"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="B133" s="49"/>
+      <c r="C133" s="49"/>
+      <c r="G133" s="49"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="B134" s="49"/>
+      <c r="C134" s="49"/>
+      <c r="G134" s="49"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="B135" s="49"/>
+      <c r="C135" s="49"/>
+      <c r="G135" s="49"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="B136" s="49"/>
+      <c r="C136" s="49"/>
+      <c r="G136" s="49"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="B137" s="49"/>
+      <c r="C137" s="49"/>
+      <c r="G137" s="49"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="B138" s="49"/>
+      <c r="C138" s="49"/>
+      <c r="G138" s="49"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="B139" s="49"/>
+      <c r="C139" s="49"/>
+      <c r="G139" s="49"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="B140" s="49"/>
+      <c r="C140" s="49"/>
+      <c r="G140" s="49"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="B141" s="49"/>
+      <c r="C141" s="49"/>
+      <c r="G141" s="49"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="B142" s="49"/>
+      <c r="C142" s="49"/>
+      <c r="G142" s="49"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="B143" s="49"/>
+      <c r="C143" s="49"/>
+      <c r="G143" s="49"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="B144" s="49"/>
+      <c r="C144" s="49"/>
+      <c r="G144" s="49"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="B145" s="49"/>
+      <c r="C145" s="49"/>
+      <c r="G145" s="49"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="B146" s="49"/>
+      <c r="C146" s="49"/>
+      <c r="G146" s="49"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="B147" s="49"/>
+      <c r="C147" s="49"/>
+      <c r="G147" s="49"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="B148" s="49"/>
+      <c r="C148" s="49"/>
+      <c r="G148" s="49"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="B149" s="49"/>
+      <c r="C149" s="49"/>
+      <c r="G149" s="49"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="G150" s="49"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="B151" s="49"/>
+      <c r="C151" s="49"/>
+      <c r="G151" s="49"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="G152" s="49"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="B153" s="49"/>
+      <c r="C153" s="49"/>
+      <c r="G153" s="49"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
+      <c r="G154" s="49"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="B155" s="49"/>
+      <c r="C155" s="49"/>
+      <c r="G155" s="49"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="B156" s="49"/>
+      <c r="C156" s="49"/>
+      <c r="G156" s="49"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="B157" s="49"/>
+      <c r="C157" s="49"/>
+      <c r="G157" s="49"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="B158" s="49"/>
+      <c r="C158" s="49"/>
+      <c r="G158" s="49"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="B159" s="49"/>
+      <c r="C159" s="49"/>
+      <c r="G159" s="49"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="B160" s="49"/>
+      <c r="C160" s="49"/>
+      <c r="G160" s="49"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="B161" s="49"/>
+      <c r="C161" s="49"/>
+      <c r="G161" s="49"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="B162" s="49"/>
+      <c r="C162" s="49"/>
+      <c r="G162" s="49"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="B163" s="49"/>
+      <c r="C163" s="49"/>
+      <c r="G163" s="49"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="B164" s="49"/>
+      <c r="C164" s="49"/>
+      <c r="G164" s="49"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="B165" s="49"/>
+      <c r="C165" s="49"/>
+      <c r="G165" s="49"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="B166" s="49"/>
+      <c r="C166" s="49"/>
+      <c r="G166" s="49"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="B167" s="49"/>
+      <c r="C167" s="49"/>
+      <c r="G167" s="49"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="B168" s="49"/>
+      <c r="C168" s="49"/>
+      <c r="G168" s="49"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="B169" s="49"/>
+      <c r="C169" s="49"/>
+      <c r="G169" s="49"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="B170" s="49"/>
+      <c r="C170" s="49"/>
+      <c r="G170" s="49"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="G171" s="49"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="G172" s="49"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="B173" s="49"/>
+      <c r="C173" s="49"/>
+      <c r="G173" s="49"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="B174" s="49"/>
+      <c r="C174" s="49"/>
+      <c r="G174" s="49"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="B175" s="49"/>
+      <c r="C175" s="49"/>
+      <c r="G175" s="49"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="B176" s="49"/>
+      <c r="C176" s="49"/>
+      <c r="G176" s="49"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="G177" s="49"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="B178" s="49"/>
+      <c r="C178" s="49"/>
+      <c r="G178" s="49"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="B179" s="49"/>
+      <c r="C179" s="49"/>
+      <c r="G179" s="49"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="B180" s="49"/>
+      <c r="C180" s="49"/>
+      <c r="G180" s="49"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="B181" s="49"/>
+      <c r="C181" s="49"/>
+      <c r="G181" s="49"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="B182" s="49"/>
+      <c r="C182" s="49"/>
+      <c r="G182" s="49"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="B183" s="49"/>
+      <c r="C183" s="49"/>
+      <c r="G183" s="49"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="B184" s="49"/>
+      <c r="C184" s="49"/>
+      <c r="G184" s="49"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="B185" s="49"/>
+      <c r="C185" s="49"/>
+      <c r="G185" s="49"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="B186" s="49"/>
+      <c r="C186" s="49"/>
+      <c r="G186" s="49"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="B187" s="49"/>
+      <c r="C187" s="49"/>
+      <c r="G187" s="49"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="B188" s="49"/>
+      <c r="C188" s="49"/>
+      <c r="G188" s="49"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="B189" s="49"/>
+      <c r="C189" s="49"/>
+      <c r="G189" s="49"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="B190" s="49"/>
+      <c r="C190" s="49"/>
+      <c r="G190" s="49"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="B191" s="49"/>
+      <c r="C191" s="49"/>
+      <c r="G191" s="49"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="B192" s="49"/>
+      <c r="C192" s="49"/>
+      <c r="G192" s="49"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="B193" s="49"/>
+      <c r="C193" s="49"/>
+      <c r="G193" s="49"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="B194" s="49"/>
+      <c r="C194" s="49"/>
+      <c r="G194" s="49"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="B195" s="49"/>
+      <c r="C195" s="49"/>
+      <c r="G195" s="49"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="B196" s="49"/>
+      <c r="C196" s="49"/>
+      <c r="G196" s="49"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="B197" s="49"/>
+      <c r="C197" s="49"/>
+      <c r="G197" s="49"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="B198" s="49"/>
+      <c r="C198" s="49"/>
+      <c r="G198" s="49"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="B199" s="49"/>
+      <c r="C199" s="49"/>
+      <c r="G199" s="49"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="B200" s="49"/>
+      <c r="C200" s="49"/>
+      <c r="G200" s="49"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="B201" s="49"/>
+      <c r="C201" s="49"/>
+      <c r="G201" s="49"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="B202" s="49"/>
+      <c r="C202" s="49"/>
+      <c r="G202" s="49"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="B203" s="49"/>
+      <c r="C203" s="49"/>
+      <c r="G203" s="49"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="B204" s="49"/>
+      <c r="C204" s="49"/>
+      <c r="G204" s="49"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="B205" s="49"/>
+      <c r="C205" s="49"/>
+      <c r="G205" s="49"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="B206" s="49"/>
+      <c r="C206" s="49"/>
+      <c r="G206" s="49"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="B207" s="49"/>
+      <c r="C207" s="49"/>
+      <c r="G207" s="49"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="B208" s="49"/>
+      <c r="C208" s="49"/>
+      <c r="G208" s="49"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="B209" s="49"/>
+      <c r="C209" s="49"/>
+      <c r="G209" s="49"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="B210" s="49"/>
+      <c r="C210" s="49"/>
+      <c r="G210" s="49"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="B211" s="49"/>
+      <c r="C211" s="49"/>
+      <c r="G211" s="49"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="B212" s="49"/>
+      <c r="C212" s="49"/>
+      <c r="G212" s="49"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="B213" s="49"/>
+      <c r="C213" s="49"/>
+      <c r="G213" s="49"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="B214" s="49"/>
+      <c r="C214" s="49"/>
+      <c r="G214" s="49"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="B215" s="49"/>
+      <c r="C215" s="49"/>
+      <c r="G215" s="49"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="B216" s="49"/>
+      <c r="C216" s="49"/>
+      <c r="G216" s="49"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="B217" s="49"/>
+      <c r="C217" s="49"/>
+      <c r="G217" s="49"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="B218" s="49"/>
+      <c r="C218" s="49"/>
+      <c r="G218" s="49"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="B219" s="49"/>
+      <c r="C219" s="49"/>
+      <c r="G219" s="49"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="B220" s="49"/>
+      <c r="C220" s="49"/>
+      <c r="G220" s="49"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="B221" s="49"/>
+      <c r="C221" s="49"/>
+      <c r="G221" s="49"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="B222" s="49"/>
+      <c r="C222" s="49"/>
+      <c r="G222" s="49"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="B223" s="49"/>
+      <c r="C223" s="49"/>
+      <c r="G223" s="49"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="B224" s="49"/>
+      <c r="C224" s="49"/>
+      <c r="G224" s="49"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="B225" s="49"/>
+      <c r="C225" s="49"/>
+      <c r="G225" s="49"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="B226" s="49"/>
+      <c r="C226" s="49"/>
+      <c r="G226" s="49"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="B227" s="49"/>
+      <c r="C227" s="49"/>
+      <c r="G227" s="49"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="B228" s="49"/>
+      <c r="C228" s="49"/>
+      <c r="G228" s="49"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="B229" s="49"/>
+      <c r="C229" s="49"/>
+      <c r="G229" s="49"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="B230" s="49"/>
+      <c r="C230" s="49"/>
+      <c r="G230" s="49"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="B231" s="49"/>
+      <c r="C231" s="49"/>
+      <c r="G231" s="49"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="B232" s="49"/>
+      <c r="C232" s="49"/>
+      <c r="G232" s="49"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="B233" s="49"/>
+      <c r="C233" s="49"/>
+      <c r="G233" s="49"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="B234" s="49"/>
+      <c r="C234" s="49"/>
+      <c r="G234" s="49"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="B235" s="49"/>
+      <c r="C235" s="49"/>
+      <c r="G235" s="49"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="B236" s="49"/>
+      <c r="C236" s="49"/>
+      <c r="G236" s="49"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="B237" s="49"/>
+      <c r="C237" s="49"/>
+      <c r="G237" s="49"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="B238" s="49"/>
+      <c r="C238" s="49"/>
+      <c r="G238" s="49"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="B239" s="49"/>
+      <c r="C239" s="49"/>
+      <c r="G239" s="49"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="B240" s="49"/>
+      <c r="C240" s="49"/>
+      <c r="G240" s="49"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="B241" s="49"/>
+      <c r="C241" s="49"/>
+      <c r="G241" s="49"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="B242" s="49"/>
+      <c r="C242" s="49"/>
+      <c r="G242" s="49"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="B243" s="49"/>
+      <c r="C243" s="49"/>
+      <c r="G243" s="49"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="B244" s="49"/>
+      <c r="C244" s="49"/>
+      <c r="G244" s="49"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="B245" s="49"/>
+      <c r="C245" s="49"/>
+      <c r="G245" s="49"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="B246" s="49"/>
+      <c r="C246" s="49"/>
+      <c r="G246" s="49"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="B247" s="49"/>
+      <c r="C247" s="49"/>
+      <c r="G247" s="49"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="B248" s="49"/>
+      <c r="C248" s="49"/>
+      <c r="G248" s="49"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="B249" s="49"/>
+      <c r="C249" s="49"/>
+      <c r="G249" s="49"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="B250" s="49"/>
+      <c r="C250" s="49"/>
+      <c r="G250" s="49"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="B251" s="49"/>
+      <c r="C251" s="49"/>
+      <c r="G251" s="49"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="B252" s="49"/>
+      <c r="C252" s="49"/>
+      <c r="G252" s="49"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="B253" s="49"/>
+      <c r="C253" s="49"/>
+      <c r="G253" s="49"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="B254" s="49"/>
+      <c r="C254" s="49"/>
+      <c r="G254" s="49"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="B255" s="49"/>
+      <c r="C255" s="49"/>
+      <c r="G255" s="49"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="B256" s="49"/>
+      <c r="C256" s="49"/>
+      <c r="G256" s="49"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="B257" s="49"/>
+      <c r="C257" s="49"/>
+      <c r="G257" s="49"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="B258" s="49"/>
+      <c r="C258" s="49"/>
+      <c r="G258" s="49"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="B259" s="49"/>
+      <c r="C259" s="49"/>
+      <c r="G259" s="49"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="B260" s="49"/>
+      <c r="C260" s="49"/>
+      <c r="G260" s="49"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="B261" s="49"/>
+      <c r="C261" s="49"/>
+      <c r="G261" s="49"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="B262" s="49"/>
+      <c r="C262" s="49"/>
+      <c r="G262" s="49"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="B263" s="49"/>
+      <c r="C263" s="49"/>
+      <c r="G263" s="49"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="B264" s="49"/>
+      <c r="C264" s="49"/>
+      <c r="G264" s="49"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="B265" s="49"/>
+      <c r="C265" s="49"/>
+      <c r="G265" s="49"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="B266" s="49"/>
+      <c r="C266" s="49"/>
+      <c r="G266" s="49"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="B267" s="49"/>
+      <c r="C267" s="49"/>
+      <c r="G267" s="49"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="B268" s="49"/>
+      <c r="C268" s="49"/>
+      <c r="G268" s="49"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="B269" s="49"/>
+      <c r="C269" s="49"/>
+      <c r="G269" s="49"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="B270" s="49"/>
+      <c r="C270" s="49"/>
+      <c r="G270" s="49"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="B271" s="49"/>
+      <c r="C271" s="49"/>
+      <c r="G271" s="49"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="B272" s="49"/>
+      <c r="C272" s="49"/>
+      <c r="G272" s="49"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="B273" s="49"/>
+      <c r="C273" s="49"/>
+      <c r="G273" s="49"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="B274" s="49"/>
+      <c r="C274" s="49"/>
+      <c r="G274" s="49"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="B275" s="49"/>
+      <c r="C275" s="49"/>
+      <c r="G275" s="49"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="B276" s="49"/>
+      <c r="C276" s="49"/>
+      <c r="G276" s="49"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="B277" s="49"/>
+      <c r="C277" s="49"/>
+      <c r="G277" s="49"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="B278" s="49"/>
+      <c r="C278" s="49"/>
+      <c r="G278" s="49"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="B279" s="49"/>
+      <c r="C279" s="49"/>
+      <c r="G279" s="49"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="B280" s="49"/>
+      <c r="C280" s="49"/>
+      <c r="G280" s="49"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="B281" s="49"/>
+      <c r="C281" s="49"/>
+      <c r="G281" s="49"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="B282" s="49"/>
+      <c r="C282" s="49"/>
+      <c r="G282" s="49"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="B283" s="49"/>
+      <c r="C283" s="49"/>
+      <c r="G283" s="49"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="B284" s="49"/>
+      <c r="C284" s="49"/>
+      <c r="G284" s="49"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="B285" s="49"/>
+      <c r="C285" s="49"/>
+      <c r="G285" s="49"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="B286" s="49"/>
+      <c r="C286" s="49"/>
+      <c r="G286" s="49"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="B287" s="49"/>
+      <c r="C287" s="49"/>
+      <c r="G287" s="49"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="B288" s="49"/>
+      <c r="C288" s="49"/>
+      <c r="G288" s="49"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="B289" s="49"/>
+      <c r="C289" s="49"/>
+      <c r="G289" s="49"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="B290" s="49"/>
+      <c r="C290" s="49"/>
+      <c r="G290" s="49"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="B291" s="49"/>
+      <c r="C291" s="49"/>
+      <c r="G291" s="49"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="B292" s="49"/>
+      <c r="C292" s="49"/>
+      <c r="G292" s="49"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="B293" s="49"/>
+      <c r="C293" s="49"/>
+      <c r="G293" s="49"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="B294" s="49"/>
+      <c r="C294" s="49"/>
+      <c r="G294" s="49"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="B295" s="49"/>
+      <c r="C295" s="49"/>
+      <c r="G295" s="49"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="B296" s="49"/>
+      <c r="C296" s="49"/>
+      <c r="G296" s="49"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="B297" s="49"/>
+      <c r="C297" s="49"/>
+      <c r="G297" s="49"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="B298" s="49"/>
+      <c r="C298" s="49"/>
+      <c r="G298" s="49"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="B299" s="49"/>
+      <c r="C299" s="49"/>
+      <c r="G299" s="49"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="B300" s="49"/>
+      <c r="C300" s="49"/>
+      <c r="G300" s="49"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="B301" s="49"/>
+      <c r="C301" s="49"/>
+      <c r="G301" s="49"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="B302" s="49"/>
+      <c r="C302" s="49"/>
+      <c r="G302" s="49"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="B303" s="49"/>
+      <c r="C303" s="49"/>
+      <c r="G303" s="49"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="B304" s="49"/>
+      <c r="C304" s="49"/>
+      <c r="G304" s="49"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="B305" s="49"/>
+      <c r="C305" s="49"/>
+      <c r="G305" s="49"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="B306" s="49"/>
+      <c r="C306" s="49"/>
+      <c r="G306" s="49"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="B307" s="49"/>
+      <c r="C307" s="49"/>
+      <c r="G307" s="49"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="B308" s="49"/>
+      <c r="C308" s="49"/>
+      <c r="G308" s="49"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="B309" s="49"/>
+      <c r="C309" s="49"/>
+      <c r="G309" s="49"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="B310" s="49"/>
+      <c r="C310" s="49"/>
+      <c r="G310" s="49"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="B311" s="49"/>
+      <c r="C311" s="49"/>
+      <c r="G311" s="49"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="B312" s="49"/>
+      <c r="C312" s="49"/>
+      <c r="G312" s="49"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="B313" s="49"/>
+      <c r="C313" s="49"/>
+      <c r="G313" s="49"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="B314" s="49"/>
+      <c r="C314" s="49"/>
+      <c r="G314" s="49"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="B315" s="49"/>
+      <c r="C315" s="49"/>
+      <c r="G315" s="49"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="B316" s="49"/>
+      <c r="C316" s="49"/>
+      <c r="G316" s="49"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="B317" s="49"/>
+      <c r="C317" s="49"/>
+      <c r="G317" s="49"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="B318" s="49"/>
+      <c r="C318" s="49"/>
+      <c r="G318" s="49"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="B319" s="49"/>
+      <c r="C319" s="49"/>
+      <c r="G319" s="49"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="B320" s="49"/>
+      <c r="C320" s="49"/>
+      <c r="G320" s="49"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="B321" s="49"/>
+      <c r="C321" s="49"/>
+      <c r="G321" s="49"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="B322" s="49"/>
+      <c r="C322" s="49"/>
+      <c r="G322" s="49"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="B323" s="49"/>
+      <c r="C323" s="49"/>
+      <c r="G323" s="49"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="B324" s="49"/>
+      <c r="C324" s="49"/>
+      <c r="G324" s="49"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="B325" s="49"/>
+      <c r="C325" s="49"/>
+      <c r="G325" s="49"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="B326" s="49"/>
+      <c r="C326" s="49"/>
+      <c r="G326" s="49"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="B327" s="49"/>
+      <c r="C327" s="49"/>
+      <c r="G327" s="49"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="B328" s="49"/>
+      <c r="C328" s="49"/>
+      <c r="G328" s="49"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="B329" s="49"/>
+      <c r="C329" s="49"/>
+      <c r="G329" s="49"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="B330" s="49"/>
+      <c r="C330" s="49"/>
+      <c r="G330" s="49"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="B331" s="49"/>
+      <c r="C331" s="49"/>
+      <c r="G331" s="49"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="B332" s="49"/>
+      <c r="C332" s="49"/>
+      <c r="G332" s="49"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="B333" s="49"/>
+      <c r="C333" s="49"/>
+      <c r="G333" s="49"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="B334" s="49"/>
+      <c r="C334" s="49"/>
+      <c r="G334" s="49"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="B335" s="49"/>
+      <c r="C335" s="49"/>
+      <c r="G335" s="49"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="B336" s="49"/>
+      <c r="C336" s="49"/>
+      <c r="G336" s="49"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="B337" s="49"/>
+      <c r="C337" s="49"/>
+      <c r="G337" s="49"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="B338" s="49"/>
+      <c r="C338" s="49"/>
+      <c r="G338" s="49"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="B339" s="49"/>
+      <c r="C339" s="49"/>
+      <c r="G339" s="49"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="B340" s="49"/>
+      <c r="C340" s="49"/>
+      <c r="G340" s="49"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="B341" s="49"/>
+      <c r="C341" s="49"/>
+      <c r="G341" s="49"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="B342" s="49"/>
+      <c r="C342" s="49"/>
+      <c r="G342" s="49"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="B343" s="49"/>
+      <c r="C343" s="49"/>
+      <c r="G343" s="49"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="B344" s="49"/>
+      <c r="C344" s="49"/>
+      <c r="G344" s="49"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="B345" s="49"/>
+      <c r="C345" s="49"/>
+      <c r="G345" s="49"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="B346" s="49"/>
+      <c r="C346" s="49"/>
+      <c r="G346" s="49"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="B347" s="49"/>
+      <c r="C347" s="49"/>
+      <c r="G347" s="49"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="B348" s="49"/>
+      <c r="C348" s="49"/>
+      <c r="G348" s="49"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="B349" s="49"/>
+      <c r="C349" s="49"/>
+      <c r="G349" s="49"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="B350" s="49"/>
+      <c r="C350" s="49"/>
+      <c r="G350" s="49"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="B351" s="49"/>
+      <c r="C351" s="49"/>
+      <c r="G351" s="49"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="B352" s="49"/>
+      <c r="C352" s="49"/>
+      <c r="G352" s="49"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="B353" s="49"/>
+      <c r="C353" s="49"/>
+      <c r="G353" s="49"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="B354" s="49"/>
+      <c r="C354" s="49"/>
+      <c r="G354" s="49"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="B355" s="49"/>
+      <c r="C355" s="49"/>
+      <c r="G355" s="49"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="B356" s="49"/>
+      <c r="C356" s="49"/>
+      <c r="G356" s="49"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="B357" s="49"/>
+      <c r="C357" s="49"/>
+      <c r="G357" s="49"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="B358" s="49"/>
+      <c r="C358" s="49"/>
+      <c r="G358" s="49"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="B359" s="49"/>
+      <c r="C359" s="49"/>
+      <c r="G359" s="49"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="B360" s="49"/>
+      <c r="C360" s="49"/>
+      <c r="G360" s="49"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="B361" s="49"/>
+      <c r="C361" s="49"/>
+      <c r="G361" s="49"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="B362" s="49"/>
+      <c r="C362" s="49"/>
+      <c r="G362" s="49"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="B363" s="49"/>
+      <c r="C363" s="49"/>
+      <c r="G363" s="49"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="B364" s="49"/>
+      <c r="C364" s="49"/>
+      <c r="G364" s="49"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="B365" s="49"/>
+      <c r="C365" s="49"/>
+      <c r="G365" s="49"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="B366" s="49"/>
+      <c r="C366" s="49"/>
+      <c r="G366" s="49"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="B367" s="49"/>
+      <c r="C367" s="49"/>
+      <c r="G367" s="49"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="B368" s="49"/>
+      <c r="C368" s="49"/>
+      <c r="G368" s="49"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="B369" s="49"/>
+      <c r="C369" s="49"/>
+      <c r="G369" s="49"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="B370" s="49"/>
+      <c r="C370" s="49"/>
+      <c r="G370" s="49"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="B371" s="49"/>
+      <c r="C371" s="49"/>
+      <c r="G371" s="49"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="B372" s="49"/>
+      <c r="C372" s="49"/>
+      <c r="G372" s="49"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="B373" s="49"/>
+      <c r="C373" s="49"/>
+      <c r="G373" s="49"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="B374" s="49"/>
+      <c r="C374" s="49"/>
+      <c r="G374" s="49"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="B375" s="49"/>
+      <c r="C375" s="49"/>
+      <c r="G375" s="49"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="B376" s="49"/>
+      <c r="C376" s="49"/>
+      <c r="G376" s="49"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="B377" s="49"/>
+      <c r="C377" s="49"/>
+      <c r="G377" s="49"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="B378" s="49"/>
+      <c r="C378" s="49"/>
+      <c r="G378" s="49"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="B379" s="49"/>
+      <c r="C379" s="49"/>
+      <c r="G379" s="49"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="B380" s="49"/>
+      <c r="C380" s="49"/>
+      <c r="G380" s="49"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="B381" s="49"/>
+      <c r="C381" s="49"/>
+      <c r="G381" s="49"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="B382" s="49"/>
+      <c r="C382" s="49"/>
+      <c r="G382" s="49"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="B383" s="49"/>
+      <c r="C383" s="49"/>
+      <c r="G383" s="49"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="B384" s="49"/>
+      <c r="C384" s="49"/>
+      <c r="G384" s="49"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="B385" s="49"/>
+      <c r="C385" s="49"/>
+      <c r="G385" s="49"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="B386" s="49"/>
+      <c r="C386" s="49"/>
+      <c r="G386" s="49"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="B387" s="49"/>
+      <c r="C387" s="49"/>
+      <c r="G387" s="49"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="B388" s="49"/>
+      <c r="C388" s="49"/>
+      <c r="G388" s="49"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="B389" s="49"/>
+      <c r="C389" s="49"/>
+      <c r="G389" s="49"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="B390" s="49"/>
+      <c r="C390" s="49"/>
+      <c r="G390" s="49"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="B391" s="49"/>
+      <c r="C391" s="49"/>
+      <c r="G391" s="49"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="B392" s="49"/>
+      <c r="C392" s="49"/>
+      <c r="G392" s="49"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="B393" s="49"/>
+      <c r="C393" s="49"/>
+      <c r="G393" s="49"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="B394" s="49"/>
+      <c r="C394" s="49"/>
+      <c r="G394" s="49"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="B395" s="49"/>
+      <c r="C395" s="49"/>
+      <c r="G395" s="49"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="B396" s="49"/>
+      <c r="C396" s="49"/>
+      <c r="G396" s="49"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="B397" s="49"/>
+      <c r="C397" s="49"/>
+      <c r="G397" s="49"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="B398" s="49"/>
+      <c r="C398" s="49"/>
+      <c r="G398" s="49"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="B399" s="49"/>
+      <c r="C399" s="49"/>
+      <c r="G399" s="49"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="B400" s="49"/>
+      <c r="C400" s="49"/>
+      <c r="G400" s="49"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="B401" s="49"/>
+      <c r="C401" s="49"/>
+      <c r="G401" s="49"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="B402" s="49"/>
+      <c r="C402" s="49"/>
+      <c r="G402" s="49"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="B403" s="49"/>
+      <c r="C403" s="49"/>
+      <c r="G403" s="49"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="B404" s="49"/>
+      <c r="C404" s="49"/>
+      <c r="G404" s="49"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="B405" s="49"/>
+      <c r="C405" s="49"/>
+      <c r="G405" s="49"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="B406" s="49"/>
+      <c r="C406" s="49"/>
+      <c r="G406" s="49"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="B407" s="49"/>
+      <c r="C407" s="49"/>
+      <c r="G407" s="49"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="B408" s="49"/>
+      <c r="C408" s="49"/>
+      <c r="G408" s="49"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="B409" s="49"/>
+      <c r="C409" s="49"/>
+      <c r="G409" s="49"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="B410" s="49"/>
+      <c r="C410" s="49"/>
+      <c r="G410" s="49"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="B411" s="49"/>
+      <c r="C411" s="49"/>
+      <c r="G411" s="49"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="B412" s="49"/>
+      <c r="C412" s="49"/>
+      <c r="G412" s="49"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="B413" s="49"/>
+      <c r="C413" s="49"/>
+      <c r="G413" s="49"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="B414" s="49"/>
+      <c r="C414" s="49"/>
+      <c r="G414" s="49"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="B415" s="49"/>
+      <c r="C415" s="49"/>
+      <c r="G415" s="49"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="B416" s="49"/>
+      <c r="C416" s="49"/>
+      <c r="G416" s="49"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="B417" s="49"/>
+      <c r="C417" s="49"/>
+      <c r="G417" s="49"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="B418" s="49"/>
+      <c r="C418" s="49"/>
+      <c r="G418" s="49"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="B419" s="49"/>
+      <c r="C419" s="49"/>
+      <c r="G419" s="49"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="B420" s="49"/>
+      <c r="C420" s="49"/>
+      <c r="G420" s="49"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="B421" s="49"/>
+      <c r="C421" s="49"/>
+      <c r="G421" s="49"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="B422" s="49"/>
+      <c r="C422" s="49"/>
+      <c r="G422" s="49"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="B423" s="49"/>
+      <c r="C423" s="49"/>
+      <c r="G423" s="49"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="B424" s="49"/>
+      <c r="C424" s="49"/>
+      <c r="G424" s="49"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="B425" s="49"/>
+      <c r="C425" s="49"/>
+      <c r="G425" s="49"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="B426" s="49"/>
+      <c r="C426" s="49"/>
+      <c r="G426" s="49"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="B427" s="49"/>
+      <c r="C427" s="49"/>
+      <c r="G427" s="49"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="B428" s="49"/>
+      <c r="C428" s="49"/>
+      <c r="G428" s="49"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="B429" s="49"/>
+      <c r="C429" s="49"/>
+      <c r="G429" s="49"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="B430" s="49"/>
+      <c r="C430" s="49"/>
+      <c r="G430" s="49"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="B431" s="49"/>
+      <c r="C431" s="49"/>
+      <c r="G431" s="49"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="B432" s="49"/>
+      <c r="C432" s="49"/>
+      <c r="G432" s="49"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="B433" s="49"/>
+      <c r="C433" s="49"/>
+      <c r="G433" s="49"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="B434" s="49"/>
+      <c r="C434" s="49"/>
+      <c r="G434" s="49"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="B435" s="49"/>
+      <c r="C435" s="49"/>
+      <c r="G435" s="49"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="B436" s="49"/>
+      <c r="C436" s="49"/>
+      <c r="G436" s="49"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="B437" s="49"/>
+      <c r="C437" s="49"/>
+      <c r="G437" s="49"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="B438" s="49"/>
+      <c r="C438" s="49"/>
+      <c r="G438" s="49"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="B439" s="49"/>
+      <c r="C439" s="49"/>
+      <c r="G439" s="49"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="B440" s="49"/>
+      <c r="C440" s="49"/>
+      <c r="G440" s="49"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="B441" s="49"/>
+      <c r="C441" s="49"/>
+      <c r="G441" s="49"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="B442" s="49"/>
+      <c r="C442" s="49"/>
+      <c r="G442" s="49"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="B443" s="49"/>
+      <c r="C443" s="49"/>
+      <c r="G443" s="49"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="B444" s="49"/>
+      <c r="C444" s="49"/>
+      <c r="G444" s="49"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="B445" s="49"/>
+      <c r="C445" s="49"/>
+      <c r="G445" s="49"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="B446" s="49"/>
+      <c r="C446" s="49"/>
+      <c r="G446" s="49"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="B447" s="49"/>
+      <c r="C447" s="49"/>
+      <c r="G447" s="49"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="B448" s="49"/>
+      <c r="C448" s="49"/>
+      <c r="G448" s="49"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="B449" s="49"/>
+      <c r="C449" s="49"/>
+      <c r="G449" s="49"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="B450" s="49"/>
+      <c r="C450" s="49"/>
+      <c r="G450" s="49"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="B451" s="49"/>
+      <c r="C451" s="49"/>
+      <c r="G451" s="49"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="B452" s="49"/>
+      <c r="C452" s="49"/>
+      <c r="G452" s="49"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="B453" s="49"/>
+      <c r="C453" s="49"/>
+      <c r="G453" s="49"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="B454" s="49"/>
+      <c r="C454" s="49"/>
+      <c r="G454" s="49"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="B455" s="49"/>
+      <c r="C455" s="49"/>
+      <c r="G455" s="49"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="B456" s="49"/>
+      <c r="C456" s="49"/>
+      <c r="G456" s="49"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="B457" s="49"/>
+      <c r="C457" s="49"/>
+      <c r="G457" s="49"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="B458" s="49"/>
+      <c r="C458" s="49"/>
+      <c r="G458" s="49"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="B459" s="49"/>
+      <c r="C459" s="49"/>
+      <c r="G459" s="49"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="B460" s="49"/>
+      <c r="C460" s="49"/>
+      <c r="G460" s="49"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="B461" s="49"/>
+      <c r="C461" s="49"/>
+      <c r="G461" s="49"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="B462" s="49"/>
+      <c r="C462" s="49"/>
+      <c r="G462" s="49"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="B463" s="49"/>
+      <c r="C463" s="49"/>
+      <c r="G463" s="49"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="B464" s="49"/>
+      <c r="C464" s="49"/>
+      <c r="G464" s="49"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="B465" s="49"/>
+      <c r="C465" s="49"/>
+      <c r="G465" s="49"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="B466" s="49"/>
+      <c r="C466" s="49"/>
+      <c r="G466" s="49"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="B467" s="49"/>
+      <c r="C467" s="49"/>
+      <c r="G467" s="49"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="B468" s="49"/>
+      <c r="C468" s="49"/>
+      <c r="G468" s="49"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="B469" s="49"/>
+      <c r="C469" s="49"/>
+      <c r="G469" s="49"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="B470" s="49"/>
+      <c r="C470" s="49"/>
+      <c r="G470" s="49"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="B471" s="49"/>
+      <c r="C471" s="49"/>
+      <c r="G471" s="49"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="B472" s="49"/>
+      <c r="C472" s="49"/>
+      <c r="G472" s="49"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="B473" s="49"/>
+      <c r="C473" s="49"/>
+      <c r="G473" s="49"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="B474" s="49"/>
+      <c r="C474" s="49"/>
+      <c r="G474" s="49"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="B475" s="49"/>
+      <c r="C475" s="49"/>
+      <c r="G475" s="49"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="B476" s="49"/>
+      <c r="C476" s="49"/>
+      <c r="G476" s="49"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="B477" s="49"/>
+      <c r="C477" s="49"/>
+      <c r="G477" s="49"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="B478" s="49"/>
+      <c r="C478" s="49"/>
+      <c r="G478" s="49"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="B479" s="49"/>
+      <c r="C479" s="49"/>
+      <c r="G479" s="49"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="B480" s="49"/>
+      <c r="C480" s="49"/>
+      <c r="G480" s="49"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="B481" s="49"/>
+      <c r="C481" s="49"/>
+      <c r="G481" s="49"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="B482" s="49"/>
+      <c r="C482" s="49"/>
+      <c r="G482" s="49"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="B483" s="49"/>
+      <c r="C483" s="49"/>
+      <c r="G483" s="49"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="B484" s="49"/>
+      <c r="C484" s="49"/>
+      <c r="G484" s="49"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="B485" s="49"/>
+      <c r="C485" s="49"/>
+      <c r="G485" s="49"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="B486" s="49"/>
+      <c r="C486" s="49"/>
+      <c r="G486" s="49"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="B487" s="49"/>
+      <c r="C487" s="49"/>
+      <c r="G487" s="49"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="B488" s="49"/>
+      <c r="C488" s="49"/>
+      <c r="G488" s="49"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="B489" s="49"/>
+      <c r="C489" s="49"/>
+      <c r="G489" s="49"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="B490" s="49"/>
+      <c r="C490" s="49"/>
+      <c r="G490" s="49"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="B491" s="49"/>
+      <c r="C491" s="49"/>
+      <c r="G491" s="49"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="B492" s="49"/>
+      <c r="C492" s="49"/>
+      <c r="G492" s="49"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="B493" s="49"/>
+      <c r="C493" s="49"/>
+      <c r="G493" s="49"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="B494" s="49"/>
+      <c r="C494" s="49"/>
+      <c r="G494" s="49"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="B495" s="49"/>
+      <c r="C495" s="49"/>
+      <c r="G495" s="49"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="B496" s="49"/>
+      <c r="C496" s="49"/>
+      <c r="G496" s="49"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="B497" s="49"/>
+      <c r="C497" s="49"/>
+      <c r="G497" s="49"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="B498" s="49"/>
+      <c r="C498" s="49"/>
+      <c r="G498" s="49"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="B499" s="49"/>
+      <c r="C499" s="49"/>
+      <c r="G499" s="49"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="B500" s="49"/>
+      <c r="C500" s="49"/>
+      <c r="G500" s="49"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="B501" s="49"/>
+      <c r="C501" s="49"/>
+      <c r="G501" s="49"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="B502" s="49"/>
+      <c r="C502" s="49"/>
+      <c r="G502" s="49"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="B503" s="49"/>
+      <c r="C503" s="49"/>
+      <c r="G503" s="49"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="B504" s="49"/>
+      <c r="C504" s="49"/>
+      <c r="G504" s="49"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="B505" s="49"/>
+      <c r="C505" s="49"/>
+      <c r="G505" s="49"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="B506" s="49"/>
+      <c r="C506" s="49"/>
+      <c r="G506" s="49"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="B507" s="49"/>
+      <c r="C507" s="49"/>
+      <c r="G507" s="49"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="B508" s="49"/>
+      <c r="C508" s="49"/>
+      <c r="G508" s="49"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="B509" s="49"/>
+      <c r="C509" s="49"/>
+      <c r="G509" s="49"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="B510" s="49"/>
+      <c r="C510" s="49"/>
+      <c r="G510" s="49"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="B511" s="49"/>
+      <c r="C511" s="49"/>
+      <c r="G511" s="49"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="B512" s="49"/>
+      <c r="C512" s="49"/>
+      <c r="G512" s="49"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="B513" s="49"/>
+      <c r="C513" s="49"/>
+      <c r="G513" s="49"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="B514" s="49"/>
+      <c r="C514" s="49"/>
+      <c r="G514" s="49"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="B515" s="49"/>
+      <c r="C515" s="49"/>
+      <c r="G515" s="49"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="B516" s="49"/>
+      <c r="C516" s="49"/>
+      <c r="G516" s="49"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="B517" s="49"/>
+      <c r="C517" s="49"/>
+      <c r="G517" s="49"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="B518" s="49"/>
+      <c r="C518" s="49"/>
+      <c r="G518" s="49"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="B519" s="49"/>
+      <c r="C519" s="49"/>
+      <c r="G519" s="49"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="B520" s="49"/>
+      <c r="C520" s="49"/>
+      <c r="G520" s="49"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="B521" s="49"/>
+      <c r="C521" s="49"/>
+      <c r="G521" s="49"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="B522" s="49"/>
+      <c r="C522" s="49"/>
+      <c r="G522" s="49"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="B523" s="49"/>
+      <c r="C523" s="49"/>
+      <c r="G523" s="49"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="B524" s="49"/>
+      <c r="C524" s="49"/>
+      <c r="G524" s="49"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="B525" s="49"/>
+      <c r="C525" s="49"/>
+      <c r="G525" s="49"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="B526" s="49"/>
+      <c r="C526" s="49"/>
+      <c r="G526" s="49"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="B527" s="49"/>
+      <c r="C527" s="49"/>
+      <c r="G527" s="49"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="B528" s="49"/>
+      <c r="C528" s="49"/>
+      <c r="G528" s="49"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="B529" s="49"/>
+      <c r="C529" s="49"/>
+      <c r="G529" s="49"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="B530" s="49"/>
+      <c r="C530" s="49"/>
+      <c r="G530" s="49"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="B531" s="49"/>
+      <c r="C531" s="49"/>
+      <c r="G531" s="49"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="B532" s="49"/>
+      <c r="C532" s="49"/>
+      <c r="G532" s="49"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="B533" s="49"/>
+      <c r="C533" s="49"/>
+      <c r="G533" s="49"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="B534" s="49"/>
+      <c r="C534" s="49"/>
+      <c r="G534" s="49"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="B535" s="49"/>
+      <c r="C535" s="49"/>
+      <c r="G535" s="49"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="B536" s="49"/>
+      <c r="C536" s="49"/>
+      <c r="G536" s="49"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="B537" s="49"/>
+      <c r="C537" s="49"/>
+      <c r="G537" s="49"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="B538" s="49"/>
+      <c r="C538" s="49"/>
+      <c r="G538" s="49"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="B539" s="49"/>
+      <c r="C539" s="49"/>
+      <c r="G539" s="49"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="B540" s="49"/>
+      <c r="C540" s="49"/>
+      <c r="G540" s="49"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="B541" s="49"/>
+      <c r="C541" s="49"/>
+      <c r="G541" s="49"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="B542" s="49"/>
+      <c r="C542" s="49"/>
+      <c r="G542" s="49"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="B543" s="49"/>
+      <c r="C543" s="49"/>
+      <c r="G543" s="49"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="B544" s="49"/>
+      <c r="C544" s="49"/>
+      <c r="G544" s="49"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="B545" s="49"/>
+      <c r="C545" s="49"/>
+      <c r="G545" s="49"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="B546" s="49"/>
+      <c r="C546" s="49"/>
+      <c r="G546" s="49"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="B547" s="49"/>
+      <c r="C547" s="49"/>
+      <c r="G547" s="49"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="B548" s="49"/>
+      <c r="C548" s="49"/>
+      <c r="G548" s="49"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="B549" s="49"/>
+      <c r="C549" s="49"/>
+      <c r="G549" s="49"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="B550" s="49"/>
+      <c r="C550" s="49"/>
+      <c r="G550" s="49"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="B551" s="49"/>
+      <c r="C551" s="49"/>
+      <c r="G551" s="49"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="B552" s="49"/>
+      <c r="C552" s="49"/>
+      <c r="G552" s="49"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="B553" s="49"/>
+      <c r="C553" s="49"/>
+      <c r="G553" s="49"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="B554" s="49"/>
+      <c r="C554" s="49"/>
+      <c r="G554" s="49"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="B555" s="49"/>
+      <c r="C555" s="49"/>
+      <c r="G555" s="49"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="B556" s="49"/>
+      <c r="C556" s="49"/>
+      <c r="G556" s="49"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="B557" s="49"/>
+      <c r="C557" s="49"/>
+      <c r="G557" s="49"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="B558" s="49"/>
+      <c r="C558" s="49"/>
+      <c r="G558" s="49"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="B559" s="49"/>
+      <c r="C559" s="49"/>
+      <c r="G559" s="49"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="B560" s="49"/>
+      <c r="C560" s="49"/>
+      <c r="G560" s="49"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="B561" s="49"/>
+      <c r="C561" s="49"/>
+      <c r="G561" s="49"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="B562" s="49"/>
+      <c r="C562" s="49"/>
+      <c r="G562" s="49"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="B563" s="49"/>
+      <c r="C563" s="49"/>
+      <c r="G563" s="49"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="B564" s="49"/>
+      <c r="C564" s="49"/>
+      <c r="G564" s="49"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="B565" s="49"/>
+      <c r="C565" s="49"/>
+      <c r="G565" s="49"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="B566" s="49"/>
+      <c r="C566" s="49"/>
+      <c r="G566" s="49"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="B567" s="49"/>
+      <c r="C567" s="49"/>
+      <c r="G567" s="49"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="B568" s="49"/>
+      <c r="C568" s="49"/>
+      <c r="G568" s="49"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="B569" s="49"/>
+      <c r="C569" s="49"/>
+      <c r="G569" s="49"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="B570" s="49"/>
+      <c r="C570" s="49"/>
+      <c r="G570" s="49"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="B571" s="49"/>
+      <c r="C571" s="49"/>
+      <c r="G571" s="49"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="B572" s="49"/>
+      <c r="C572" s="49"/>
+      <c r="G572" s="49"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="B573" s="49"/>
+      <c r="C573" s="49"/>
+      <c r="G573" s="49"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="B574" s="49"/>
+      <c r="C574" s="49"/>
+      <c r="G574" s="49"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="B575" s="49"/>
+      <c r="C575" s="49"/>
+      <c r="G575" s="49"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="B576" s="49"/>
+      <c r="C576" s="49"/>
+      <c r="G576" s="49"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="B577" s="49"/>
+      <c r="C577" s="49"/>
+      <c r="G577" s="49"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="B578" s="49"/>
+      <c r="C578" s="49"/>
+      <c r="G578" s="49"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="B579" s="49"/>
+      <c r="C579" s="49"/>
+      <c r="G579" s="49"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="B580" s="49"/>
+      <c r="C580" s="49"/>
+      <c r="G580" s="49"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="B581" s="49"/>
+      <c r="C581" s="49"/>
+      <c r="G581" s="49"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="B582" s="49"/>
+      <c r="C582" s="49"/>
+      <c r="G582" s="49"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="B583" s="49"/>
+      <c r="C583" s="49"/>
+      <c r="G583" s="49"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="B584" s="49"/>
+      <c r="C584" s="49"/>
+      <c r="G584" s="49"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="B585" s="49"/>
+      <c r="C585" s="49"/>
+      <c r="G585" s="49"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="B586" s="49"/>
+      <c r="C586" s="49"/>
+      <c r="G586" s="49"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="B587" s="49"/>
+      <c r="C587" s="49"/>
+      <c r="G587" s="49"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="B588" s="49"/>
+      <c r="C588" s="49"/>
+      <c r="G588" s="49"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="B589" s="49"/>
+      <c r="C589" s="49"/>
+      <c r="G589" s="49"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="B590" s="49"/>
+      <c r="C590" s="49"/>
+      <c r="G590" s="49"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="B591" s="49"/>
+      <c r="C591" s="49"/>
+      <c r="G591" s="49"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="B592" s="49"/>
+      <c r="C592" s="49"/>
+      <c r="G592" s="49"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="B593" s="49"/>
+      <c r="C593" s="49"/>
+      <c r="G593" s="49"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="B594" s="49"/>
+      <c r="C594" s="49"/>
+      <c r="G594" s="49"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="B595" s="49"/>
+      <c r="C595" s="49"/>
+      <c r="G595" s="49"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="B596" s="49"/>
+      <c r="C596" s="49"/>
+      <c r="G596" s="49"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="B597" s="49"/>
+      <c r="C597" s="49"/>
+      <c r="G597" s="49"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="B598" s="49"/>
+      <c r="C598" s="49"/>
+      <c r="G598" s="49"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="B599" s="49"/>
+      <c r="C599" s="49"/>
+      <c r="G599" s="49"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="B600" s="49"/>
+      <c r="C600" s="49"/>
+      <c r="G600" s="49"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="B601" s="49"/>
+      <c r="C601" s="49"/>
+      <c r="G601" s="49"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="B602" s="49"/>
+      <c r="C602" s="49"/>
+      <c r="G602" s="49"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="B603" s="49"/>
+      <c r="C603" s="49"/>
+      <c r="G603" s="49"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="B604" s="49"/>
+      <c r="C604" s="49"/>
+      <c r="G604" s="49"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="B605" s="49"/>
+      <c r="C605" s="49"/>
+      <c r="G605" s="49"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="B606" s="49"/>
+      <c r="C606" s="49"/>
+      <c r="G606" s="49"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="B607" s="49"/>
+      <c r="C607" s="49"/>
+      <c r="G607" s="49"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="B608" s="49"/>
+      <c r="C608" s="49"/>
+      <c r="G608" s="49"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="B609" s="49"/>
+      <c r="C609" s="49"/>
+      <c r="G609" s="49"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="B610" s="49"/>
+      <c r="C610" s="49"/>
+      <c r="G610" s="49"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="B611" s="49"/>
+      <c r="C611" s="49"/>
+      <c r="G611" s="49"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="B612" s="49"/>
+      <c r="C612" s="49"/>
+      <c r="G612" s="49"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="B613" s="49"/>
+      <c r="C613" s="49"/>
+      <c r="G613" s="49"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="B614" s="49"/>
+      <c r="C614" s="49"/>
+      <c r="G614" s="49"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="B615" s="49"/>
+      <c r="C615" s="49"/>
+      <c r="G615" s="49"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="B616" s="49"/>
+      <c r="C616" s="49"/>
+      <c r="G616" s="49"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="B617" s="49"/>
+      <c r="C617" s="49"/>
+      <c r="G617" s="49"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="B618" s="49"/>
+      <c r="C618" s="49"/>
+      <c r="G618" s="49"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="B619" s="49"/>
+      <c r="C619" s="49"/>
+      <c r="G619" s="49"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="B620" s="49"/>
+      <c r="C620" s="49"/>
+      <c r="G620" s="49"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="B621" s="49"/>
+      <c r="C621" s="49"/>
+      <c r="G621" s="49"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="B622" s="49"/>
+      <c r="C622" s="49"/>
+      <c r="G622" s="49"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="B623" s="49"/>
+      <c r="C623" s="49"/>
+      <c r="G623" s="49"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="B624" s="49"/>
+      <c r="C624" s="49"/>
+      <c r="G624" s="49"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="B625" s="49"/>
+      <c r="C625" s="49"/>
+      <c r="G625" s="49"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="B626" s="49"/>
+      <c r="C626" s="49"/>
+      <c r="G626" s="49"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="B627" s="49"/>
+      <c r="C627" s="49"/>
+      <c r="G627" s="49"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="B628" s="49"/>
+      <c r="C628" s="49"/>
+      <c r="G628" s="49"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="B629" s="49"/>
+      <c r="C629" s="49"/>
+      <c r="G629" s="49"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="B630" s="49"/>
+      <c r="C630" s="49"/>
+      <c r="G630" s="49"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="B631" s="49"/>
+      <c r="C631" s="49"/>
+      <c r="G631" s="49"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="B632" s="49"/>
+      <c r="C632" s="49"/>
+      <c r="G632" s="49"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="B633" s="49"/>
+      <c r="C633" s="49"/>
+      <c r="G633" s="49"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="B634" s="49"/>
+      <c r="C634" s="49"/>
+      <c r="G634" s="49"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="B635" s="49"/>
+      <c r="C635" s="49"/>
+      <c r="G635" s="49"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="B636" s="49"/>
+      <c r="C636" s="49"/>
+      <c r="G636" s="49"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="B637" s="49"/>
+      <c r="C637" s="49"/>
+      <c r="G637" s="49"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="B638" s="49"/>
+      <c r="C638" s="49"/>
+      <c r="G638" s="49"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="B639" s="49"/>
+      <c r="C639" s="49"/>
+      <c r="G639" s="49"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="B640" s="49"/>
+      <c r="C640" s="49"/>
+      <c r="G640" s="49"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="B641" s="49"/>
+      <c r="C641" s="49"/>
+      <c r="G641" s="49"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="B642" s="49"/>
+      <c r="C642" s="49"/>
+      <c r="G642" s="49"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="B643" s="49"/>
+      <c r="C643" s="49"/>
+      <c r="G643" s="49"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="B644" s="49"/>
+      <c r="C644" s="49"/>
+      <c r="G644" s="49"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="B645" s="49"/>
+      <c r="C645" s="49"/>
+      <c r="G645" s="49"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="B646" s="49"/>
+      <c r="C646" s="49"/>
+      <c r="G646" s="49"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="B647" s="49"/>
+      <c r="C647" s="49"/>
+      <c r="G647" s="49"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="B648" s="49"/>
+      <c r="C648" s="49"/>
+      <c r="G648" s="49"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="B649" s="49"/>
+      <c r="C649" s="49"/>
+      <c r="G649" s="49"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="B650" s="49"/>
+      <c r="C650" s="49"/>
+      <c r="G650" s="49"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="B651" s="49"/>
+      <c r="C651" s="49"/>
+      <c r="G651" s="49"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="B652" s="49"/>
+      <c r="C652" s="49"/>
+      <c r="G652" s="49"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="B653" s="49"/>
+      <c r="C653" s="49"/>
+      <c r="G653" s="49"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="B654" s="49"/>
+      <c r="C654" s="49"/>
+      <c r="G654" s="49"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="B655" s="49"/>
+      <c r="C655" s="49"/>
+      <c r="G655" s="49"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="B656" s="49"/>
+      <c r="C656" s="49"/>
+      <c r="G656" s="49"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="B657" s="49"/>
+      <c r="C657" s="49"/>
+      <c r="G657" s="49"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="B658" s="49"/>
+      <c r="C658" s="49"/>
+      <c r="G658" s="49"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="B659" s="49"/>
+      <c r="C659" s="49"/>
+      <c r="G659" s="49"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="B660" s="49"/>
+      <c r="C660" s="49"/>
+      <c r="G660" s="49"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="B661" s="49"/>
+      <c r="C661" s="49"/>
+      <c r="G661" s="49"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="B662" s="49"/>
+      <c r="C662" s="49"/>
+      <c r="G662" s="49"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="B663" s="49"/>
+      <c r="C663" s="49"/>
+      <c r="G663" s="49"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="B664" s="49"/>
+      <c r="C664" s="49"/>
+      <c r="G664" s="49"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="B665" s="49"/>
+      <c r="C665" s="49"/>
+      <c r="G665" s="49"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="B666" s="49"/>
+      <c r="C666" s="49"/>
+      <c r="G666" s="49"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="B667" s="49"/>
+      <c r="C667" s="49"/>
+      <c r="G667" s="49"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="B668" s="49"/>
+      <c r="C668" s="49"/>
+      <c r="G668" s="49"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="B669" s="49"/>
+      <c r="C669" s="49"/>
+      <c r="G669" s="49"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="B670" s="49"/>
+      <c r="C670" s="49"/>
+      <c r="G670" s="49"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="B671" s="49"/>
+      <c r="C671" s="49"/>
+      <c r="G671" s="49"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="B672" s="49"/>
+      <c r="C672" s="49"/>
+      <c r="G672" s="49"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="B673" s="49"/>
+      <c r="C673" s="49"/>
+      <c r="G673" s="49"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="B674" s="49"/>
+      <c r="C674" s="49"/>
+      <c r="G674" s="49"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="B675" s="49"/>
+      <c r="C675" s="49"/>
+      <c r="G675" s="49"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="B676" s="49"/>
+      <c r="C676" s="49"/>
+      <c r="G676" s="49"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="B677" s="49"/>
+      <c r="C677" s="49"/>
+      <c r="G677" s="49"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="B678" s="49"/>
+      <c r="C678" s="49"/>
+      <c r="G678" s="49"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="B679" s="49"/>
+      <c r="C679" s="49"/>
+      <c r="G679" s="49"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="B680" s="49"/>
+      <c r="C680" s="49"/>
+      <c r="G680" s="49"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="B681" s="49"/>
+      <c r="C681" s="49"/>
+      <c r="G681" s="49"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="B682" s="49"/>
+      <c r="C682" s="49"/>
+      <c r="G682" s="49"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="B683" s="49"/>
+      <c r="C683" s="49"/>
+      <c r="G683" s="49"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="B684" s="49"/>
+      <c r="C684" s="49"/>
+      <c r="G684" s="49"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="B685" s="49"/>
+      <c r="C685" s="49"/>
+      <c r="G685" s="49"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="B686" s="49"/>
+      <c r="C686" s="49"/>
+      <c r="G686" s="49"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="B687" s="49"/>
+      <c r="C687" s="49"/>
+      <c r="G687" s="49"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="B688" s="49"/>
+      <c r="C688" s="49"/>
+      <c r="G688" s="49"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="B689" s="49"/>
+      <c r="C689" s="49"/>
+      <c r="G689" s="49"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="B690" s="49"/>
+      <c r="C690" s="49"/>
+      <c r="G690" s="49"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="B691" s="49"/>
+      <c r="C691" s="49"/>
+      <c r="G691" s="49"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="B692" s="49"/>
+      <c r="C692" s="49"/>
+      <c r="G692" s="49"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="B693" s="49"/>
+      <c r="C693" s="49"/>
+      <c r="G693" s="49"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="B694" s="49"/>
+      <c r="C694" s="49"/>
+      <c r="G694" s="49"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="B695" s="49"/>
+      <c r="C695" s="49"/>
+      <c r="G695" s="49"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="B696" s="49"/>
+      <c r="C696" s="49"/>
+      <c r="G696" s="49"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="B697" s="49"/>
+      <c r="C697" s="49"/>
+      <c r="G697" s="49"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="B698" s="49"/>
+      <c r="C698" s="49"/>
+      <c r="G698" s="49"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="B699" s="49"/>
+      <c r="C699" s="49"/>
+      <c r="G699" s="49"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="B700" s="49"/>
+      <c r="C700" s="49"/>
+      <c r="G700" s="49"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="B701" s="49"/>
+      <c r="C701" s="49"/>
+      <c r="G701" s="49"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="B702" s="49"/>
+      <c r="C702" s="49"/>
+      <c r="G702" s="49"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="B703" s="49"/>
+      <c r="C703" s="49"/>
+      <c r="G703" s="49"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="B704" s="49"/>
+      <c r="C704" s="49"/>
+      <c r="G704" s="49"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="B705" s="49"/>
+      <c r="C705" s="49"/>
+      <c r="G705" s="49"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="B706" s="49"/>
+      <c r="C706" s="49"/>
+      <c r="G706" s="49"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="B707" s="49"/>
+      <c r="C707" s="49"/>
+      <c r="G707" s="49"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="B708" s="49"/>
+      <c r="C708" s="49"/>
+      <c r="G708" s="49"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="B709" s="49"/>
+      <c r="C709" s="49"/>
+      <c r="G709" s="49"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="B710" s="49"/>
+      <c r="C710" s="49"/>
+      <c r="G710" s="49"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="B711" s="49"/>
+      <c r="C711" s="49"/>
+      <c r="G711" s="49"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="B712" s="49"/>
+      <c r="C712" s="49"/>
+      <c r="G712" s="49"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="B713" s="49"/>
+      <c r="C713" s="49"/>
+      <c r="G713" s="49"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="B714" s="49"/>
+      <c r="C714" s="49"/>
+      <c r="G714" s="49"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="B715" s="49"/>
+      <c r="C715" s="49"/>
+      <c r="G715" s="49"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="B716" s="49"/>
+      <c r="C716" s="49"/>
+      <c r="G716" s="49"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="B717" s="49"/>
+      <c r="C717" s="49"/>
+      <c r="G717" s="49"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="B718" s="49"/>
+      <c r="C718" s="49"/>
+      <c r="G718" s="49"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="B719" s="49"/>
+      <c r="C719" s="49"/>
+      <c r="G719" s="49"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="B720" s="49"/>
+      <c r="C720" s="49"/>
+      <c r="G720" s="49"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="B721" s="49"/>
+      <c r="C721" s="49"/>
+      <c r="G721" s="49"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="B722" s="49"/>
+      <c r="C722" s="49"/>
+      <c r="G722" s="49"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="B723" s="49"/>
+      <c r="C723" s="49"/>
+      <c r="G723" s="49"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="B724" s="49"/>
+      <c r="C724" s="49"/>
+      <c r="G724" s="49"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="B725" s="49"/>
+      <c r="C725" s="49"/>
+      <c r="G725" s="49"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="B726" s="49"/>
+      <c r="C726" s="49"/>
+      <c r="G726" s="49"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="B727" s="49"/>
+      <c r="C727" s="49"/>
+      <c r="G727" s="49"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="B728" s="49"/>
+      <c r="C728" s="49"/>
+      <c r="G728" s="49"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="B729" s="49"/>
+      <c r="C729" s="49"/>
+      <c r="G729" s="49"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="B730" s="49"/>
+      <c r="C730" s="49"/>
+      <c r="G730" s="49"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="B731" s="49"/>
+      <c r="C731" s="49"/>
+      <c r="G731" s="49"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="B732" s="49"/>
+      <c r="C732" s="49"/>
+      <c r="G732" s="49"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="B733" s="49"/>
+      <c r="C733" s="49"/>
+      <c r="G733" s="49"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="B734" s="49"/>
+      <c r="C734" s="49"/>
+      <c r="G734" s="49"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="B735" s="49"/>
+      <c r="C735" s="49"/>
+      <c r="G735" s="49"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="B736" s="49"/>
+      <c r="C736" s="49"/>
+      <c r="G736" s="49"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="B737" s="49"/>
+      <c r="C737" s="49"/>
+      <c r="G737" s="49"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="B738" s="49"/>
+      <c r="C738" s="49"/>
+      <c r="G738" s="49"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="B739" s="49"/>
+      <c r="C739" s="49"/>
+      <c r="G739" s="49"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="B740" s="49"/>
+      <c r="C740" s="49"/>
+      <c r="G740" s="49"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="B741" s="49"/>
+      <c r="C741" s="49"/>
+      <c r="G741" s="49"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="B742" s="49"/>
+      <c r="C742" s="49"/>
+      <c r="G742" s="49"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="B743" s="49"/>
+      <c r="C743" s="49"/>
+      <c r="G743" s="49"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="B744" s="49"/>
+      <c r="C744" s="49"/>
+      <c r="G744" s="49"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="B745" s="49"/>
+      <c r="C745" s="49"/>
+      <c r="G745" s="49"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="B746" s="49"/>
+      <c r="C746" s="49"/>
+      <c r="G746" s="49"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="B747" s="49"/>
+      <c r="C747" s="49"/>
+      <c r="G747" s="49"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="B748" s="49"/>
+      <c r="C748" s="49"/>
+      <c r="G748" s="49"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="B749" s="49"/>
+      <c r="C749" s="49"/>
+      <c r="G749" s="49"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="B750" s="49"/>
+      <c r="C750" s="49"/>
+      <c r="G750" s="49"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="B751" s="49"/>
+      <c r="C751" s="49"/>
+      <c r="G751" s="49"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="B752" s="49"/>
+      <c r="C752" s="49"/>
+      <c r="G752" s="49"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="B753" s="49"/>
+      <c r="C753" s="49"/>
+      <c r="G753" s="49"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="B754" s="49"/>
+      <c r="C754" s="49"/>
+      <c r="G754" s="49"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="B755" s="49"/>
+      <c r="C755" s="49"/>
+      <c r="G755" s="49"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="B756" s="49"/>
+      <c r="C756" s="49"/>
+      <c r="G756" s="49"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="B757" s="49"/>
+      <c r="C757" s="49"/>
+      <c r="G757" s="49"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="B758" s="49"/>
+      <c r="C758" s="49"/>
+      <c r="G758" s="49"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="B759" s="49"/>
+      <c r="C759" s="49"/>
+      <c r="G759" s="49"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="B760" s="49"/>
+      <c r="C760" s="49"/>
+      <c r="G760" s="49"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="B761" s="49"/>
+      <c r="C761" s="49"/>
+      <c r="G761" s="49"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="B762" s="49"/>
+      <c r="C762" s="49"/>
+      <c r="G762" s="49"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="B763" s="49"/>
+      <c r="C763" s="49"/>
+      <c r="G763" s="49"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="B764" s="49"/>
+      <c r="C764" s="49"/>
+      <c r="G764" s="49"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="B765" s="49"/>
+      <c r="C765" s="49"/>
+      <c r="G765" s="49"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="B766" s="49"/>
+      <c r="C766" s="49"/>
+      <c r="G766" s="49"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="B767" s="49"/>
+      <c r="C767" s="49"/>
+      <c r="G767" s="49"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="B768" s="49"/>
+      <c r="C768" s="49"/>
+      <c r="G768" s="49"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="B769" s="49"/>
+      <c r="C769" s="49"/>
+      <c r="G769" s="49"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="B770" s="49"/>
+      <c r="C770" s="49"/>
+      <c r="G770" s="49"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="B771" s="49"/>
+      <c r="C771" s="49"/>
+      <c r="G771" s="49"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="B772" s="49"/>
+      <c r="C772" s="49"/>
+      <c r="G772" s="49"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="B773" s="49"/>
+      <c r="C773" s="49"/>
+      <c r="G773" s="49"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="B774" s="49"/>
+      <c r="C774" s="49"/>
+      <c r="G774" s="49"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="B775" s="49"/>
+      <c r="C775" s="49"/>
+      <c r="G775" s="49"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="B776" s="49"/>
+      <c r="C776" s="49"/>
+      <c r="G776" s="49"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="B777" s="49"/>
+      <c r="C777" s="49"/>
+      <c r="G777" s="49"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="B778" s="49"/>
+      <c r="C778" s="49"/>
+      <c r="G778" s="49"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="B779" s="49"/>
+      <c r="C779" s="49"/>
+      <c r="G779" s="49"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="B780" s="49"/>
+      <c r="C780" s="49"/>
+      <c r="G780" s="49"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="B781" s="49"/>
+      <c r="C781" s="49"/>
+      <c r="G781" s="49"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="B782" s="49"/>
+      <c r="C782" s="49"/>
+      <c r="G782" s="49"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="B783" s="49"/>
+      <c r="C783" s="49"/>
+      <c r="G783" s="49"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="B784" s="49"/>
+      <c r="C784" s="49"/>
+      <c r="G784" s="49"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="B785" s="49"/>
+      <c r="C785" s="49"/>
+      <c r="G785" s="49"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="B786" s="49"/>
+      <c r="C786" s="49"/>
+      <c r="G786" s="49"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="B787" s="49"/>
+      <c r="C787" s="49"/>
+      <c r="G787" s="49"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="B788" s="49"/>
+      <c r="C788" s="49"/>
+      <c r="G788" s="49"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="B789" s="49"/>
+      <c r="C789" s="49"/>
+      <c r="G789" s="49"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="B790" s="49"/>
+      <c r="C790" s="49"/>
+      <c r="G790" s="49"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="B791" s="49"/>
+      <c r="C791" s="49"/>
+      <c r="G791" s="49"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="B792" s="49"/>
+      <c r="C792" s="49"/>
+      <c r="G792" s="49"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="B793" s="49"/>
+      <c r="C793" s="49"/>
+      <c r="G793" s="49"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="B794" s="49"/>
+      <c r="C794" s="49"/>
+      <c r="G794" s="49"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="B795" s="49"/>
+      <c r="C795" s="49"/>
+      <c r="G795" s="49"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="B796" s="49"/>
+      <c r="C796" s="49"/>
+      <c r="G796" s="49"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="B797" s="49"/>
+      <c r="C797" s="49"/>
+      <c r="G797" s="49"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="B798" s="49"/>
+      <c r="C798" s="49"/>
+      <c r="G798" s="49"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="B799" s="49"/>
+      <c r="C799" s="49"/>
+      <c r="G799" s="49"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="B800" s="49"/>
+      <c r="C800" s="49"/>
+      <c r="G800" s="49"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="B801" s="49"/>
+      <c r="C801" s="49"/>
+      <c r="G801" s="49"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="B802" s="49"/>
+      <c r="C802" s="49"/>
+      <c r="G802" s="49"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="B803" s="49"/>
+      <c r="C803" s="49"/>
+      <c r="G803" s="49"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="B804" s="49"/>
+      <c r="C804" s="49"/>
+      <c r="G804" s="49"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="B805" s="49"/>
+      <c r="C805" s="49"/>
+      <c r="G805" s="49"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="B806" s="49"/>
+      <c r="C806" s="49"/>
+      <c r="G806" s="49"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="B807" s="49"/>
+      <c r="C807" s="49"/>
+      <c r="G807" s="49"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="B808" s="49"/>
+      <c r="C808" s="49"/>
+      <c r="G808" s="49"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="B809" s="49"/>
+      <c r="C809" s="49"/>
+      <c r="G809" s="49"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="B810" s="49"/>
+      <c r="C810" s="49"/>
+      <c r="G810" s="49"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="B811" s="49"/>
+      <c r="C811" s="49"/>
+      <c r="G811" s="49"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="B812" s="49"/>
+      <c r="C812" s="49"/>
+      <c r="G812" s="49"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="B813" s="49"/>
+      <c r="C813" s="49"/>
+      <c r="G813" s="49"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="B814" s="49"/>
+      <c r="C814" s="49"/>
+      <c r="G814" s="49"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="B815" s="49"/>
+      <c r="C815" s="49"/>
+      <c r="G815" s="49"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="B816" s="49"/>
+      <c r="C816" s="49"/>
+      <c r="G816" s="49"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="B817" s="49"/>
+      <c r="C817" s="49"/>
+      <c r="G817" s="49"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="B818" s="49"/>
+      <c r="C818" s="49"/>
+      <c r="G818" s="49"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="B819" s="49"/>
+      <c r="C819" s="49"/>
+      <c r="G819" s="49"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="B820" s="49"/>
+      <c r="C820" s="49"/>
+      <c r="G820" s="49"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="B821" s="49"/>
+      <c r="C821" s="49"/>
+      <c r="G821" s="49"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="B822" s="49"/>
+      <c r="C822" s="49"/>
+      <c r="G822" s="49"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="B823" s="49"/>
+      <c r="C823" s="49"/>
+      <c r="G823" s="49"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="B824" s="49"/>
+      <c r="C824" s="49"/>
+      <c r="G824" s="49"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="B825" s="49"/>
+      <c r="C825" s="49"/>
+      <c r="G825" s="49"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="B826" s="49"/>
+      <c r="C826" s="49"/>
+      <c r="G826" s="49"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="B827" s="49"/>
+      <c r="C827" s="49"/>
+      <c r="G827" s="49"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="B828" s="49"/>
+      <c r="C828" s="49"/>
+      <c r="G828" s="49"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="B829" s="49"/>
+      <c r="C829" s="49"/>
+      <c r="G829" s="49"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="B830" s="49"/>
+      <c r="C830" s="49"/>
+      <c r="G830" s="49"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="B831" s="49"/>
+      <c r="C831" s="49"/>
+      <c r="G831" s="49"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="B832" s="49"/>
+      <c r="C832" s="49"/>
+      <c r="G832" s="49"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="B833" s="49"/>
+      <c r="C833" s="49"/>
+      <c r="G833" s="49"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="B834" s="49"/>
+      <c r="C834" s="49"/>
+      <c r="G834" s="49"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="B835" s="49"/>
+      <c r="C835" s="49"/>
+      <c r="G835" s="49"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="B836" s="49"/>
+      <c r="C836" s="49"/>
+      <c r="G836" s="49"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="B837" s="49"/>
+      <c r="C837" s="49"/>
+      <c r="G837" s="49"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="B838" s="49"/>
+      <c r="C838" s="49"/>
+      <c r="G838" s="49"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="B839" s="49"/>
+      <c r="C839" s="49"/>
+      <c r="G839" s="49"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="B840" s="49"/>
+      <c r="C840" s="49"/>
+      <c r="G840" s="49"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="B841" s="49"/>
+      <c r="C841" s="49"/>
+      <c r="G841" s="49"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="B842" s="49"/>
+      <c r="C842" s="49"/>
+      <c r="G842" s="49"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="B843" s="49"/>
+      <c r="C843" s="49"/>
+      <c r="G843" s="49"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="B844" s="49"/>
+      <c r="C844" s="49"/>
+      <c r="G844" s="49"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="B845" s="49"/>
+      <c r="C845" s="49"/>
+      <c r="G845" s="49"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="B846" s="49"/>
+      <c r="C846" s="49"/>
+      <c r="G846" s="49"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="B847" s="49"/>
+      <c r="C847" s="49"/>
+      <c r="G847" s="49"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="B848" s="49"/>
+      <c r="C848" s="49"/>
+      <c r="G848" s="49"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="B849" s="49"/>
+      <c r="C849" s="49"/>
+      <c r="G849" s="49"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="B850" s="49"/>
+      <c r="C850" s="49"/>
+      <c r="G850" s="49"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="B851" s="49"/>
+      <c r="C851" s="49"/>
+      <c r="G851" s="49"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="B852" s="49"/>
+      <c r="C852" s="49"/>
+      <c r="G852" s="49"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="B853" s="49"/>
+      <c r="C853" s="49"/>
+      <c r="G853" s="49"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="B854" s="49"/>
+      <c r="C854" s="49"/>
+      <c r="G854" s="49"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="B855" s="49"/>
+      <c r="C855" s="49"/>
+      <c r="G855" s="49"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="B856" s="49"/>
+      <c r="C856" s="49"/>
+      <c r="G856" s="49"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="B857" s="49"/>
+      <c r="C857" s="49"/>
+      <c r="G857" s="49"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="B858" s="49"/>
+      <c r="C858" s="49"/>
+      <c r="G858" s="49"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="B859" s="49"/>
+      <c r="C859" s="49"/>
+      <c r="G859" s="49"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="B860" s="49"/>
+      <c r="C860" s="49"/>
+      <c r="G860" s="49"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="B861" s="49"/>
+      <c r="C861" s="49"/>
+      <c r="G861" s="49"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="B862" s="49"/>
+      <c r="C862" s="49"/>
+      <c r="G862" s="49"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="B863" s="49"/>
+      <c r="C863" s="49"/>
+      <c r="G863" s="49"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="B864" s="49"/>
+      <c r="C864" s="49"/>
+      <c r="G864" s="49"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="B865" s="49"/>
+      <c r="C865" s="49"/>
+      <c r="G865" s="49"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="B866" s="49"/>
+      <c r="C866" s="49"/>
+      <c r="G866" s="49"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="B867" s="49"/>
+      <c r="C867" s="49"/>
+      <c r="G867" s="49"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="B868" s="49"/>
+      <c r="C868" s="49"/>
+      <c r="G868" s="49"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="B869" s="49"/>
+      <c r="C869" s="49"/>
+      <c r="G869" s="49"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="B870" s="49"/>
+      <c r="C870" s="49"/>
+      <c r="G870" s="49"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="B871" s="49"/>
+      <c r="C871" s="49"/>
+      <c r="G871" s="49"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="B872" s="49"/>
+      <c r="C872" s="49"/>
+      <c r="G872" s="49"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="B873" s="49"/>
+      <c r="C873" s="49"/>
+      <c r="G873" s="49"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="B874" s="49"/>
+      <c r="C874" s="49"/>
+      <c r="G874" s="49"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="B875" s="49"/>
+      <c r="C875" s="49"/>
+      <c r="G875" s="49"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="B876" s="49"/>
+      <c r="C876" s="49"/>
+      <c r="G876" s="49"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="B877" s="49"/>
+      <c r="C877" s="49"/>
+      <c r="G877" s="49"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="B878" s="49"/>
+      <c r="C878" s="49"/>
+      <c r="G878" s="49"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="B879" s="49"/>
+      <c r="C879" s="49"/>
+      <c r="G879" s="49"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="B880" s="49"/>
+      <c r="C880" s="49"/>
+      <c r="G880" s="49"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="B881" s="49"/>
+      <c r="C881" s="49"/>
+      <c r="G881" s="49"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="B882" s="49"/>
+      <c r="C882" s="49"/>
+      <c r="G882" s="49"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="B883" s="49"/>
+      <c r="C883" s="49"/>
+      <c r="G883" s="49"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="B884" s="49"/>
+      <c r="C884" s="49"/>
+      <c r="G884" s="49"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="B885" s="49"/>
+      <c r="C885" s="49"/>
+      <c r="G885" s="49"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="B886" s="49"/>
+      <c r="C886" s="49"/>
+      <c r="G886" s="49"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="B887" s="49"/>
+      <c r="C887" s="49"/>
+      <c r="G887" s="49"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="B888" s="49"/>
+      <c r="C888" s="49"/>
+      <c r="G888" s="49"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="B889" s="49"/>
+      <c r="C889" s="49"/>
+      <c r="G889" s="49"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="B890" s="49"/>
+      <c r="C890" s="49"/>
+      <c r="G890" s="49"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="B891" s="49"/>
+      <c r="C891" s="49"/>
+      <c r="G891" s="49"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="B892" s="49"/>
+      <c r="C892" s="49"/>
+      <c r="G892" s="49"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="B893" s="49"/>
+      <c r="C893" s="49"/>
+      <c r="G893" s="49"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="B894" s="49"/>
+      <c r="C894" s="49"/>
+      <c r="G894" s="49"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="B895" s="49"/>
+      <c r="C895" s="49"/>
+      <c r="G895" s="49"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="B896" s="49"/>
+      <c r="C896" s="49"/>
+      <c r="G896" s="49"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="B897" s="49"/>
+      <c r="C897" s="49"/>
+      <c r="G897" s="49"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="B898" s="49"/>
+      <c r="C898" s="49"/>
+      <c r="G898" s="49"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="B899" s="49"/>
+      <c r="C899" s="49"/>
+      <c r="G899" s="49"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="B900" s="49"/>
+      <c r="C900" s="49"/>
+      <c r="G900" s="49"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="B901" s="49"/>
+      <c r="C901" s="49"/>
+      <c r="G901" s="49"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="B902" s="49"/>
+      <c r="C902" s="49"/>
+      <c r="G902" s="49"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="B903" s="49"/>
+      <c r="C903" s="49"/>
+      <c r="G903" s="49"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="B904" s="49"/>
+      <c r="C904" s="49"/>
+      <c r="G904" s="49"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="B905" s="49"/>
+      <c r="C905" s="49"/>
+      <c r="G905" s="49"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="B906" s="49"/>
+      <c r="C906" s="49"/>
+      <c r="G906" s="49"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="B907" s="49"/>
+      <c r="C907" s="49"/>
+      <c r="G907" s="49"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="B908" s="49"/>
+      <c r="C908" s="49"/>
+      <c r="G908" s="49"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="B909" s="49"/>
+      <c r="C909" s="49"/>
+      <c r="G909" s="49"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="B910" s="49"/>
+      <c r="C910" s="49"/>
+      <c r="G910" s="49"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="B911" s="49"/>
+      <c r="C911" s="49"/>
+      <c r="G911" s="49"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="B912" s="49"/>
+      <c r="C912" s="49"/>
+      <c r="G912" s="49"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="B913" s="49"/>
+      <c r="C913" s="49"/>
+      <c r="G913" s="49"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="B914" s="49"/>
+      <c r="C914" s="49"/>
+      <c r="G914" s="49"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="B915" s="49"/>
+      <c r="C915" s="49"/>
+      <c r="G915" s="49"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="B916" s="49"/>
+      <c r="C916" s="49"/>
+      <c r="G916" s="49"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="B917" s="49"/>
+      <c r="C917" s="49"/>
+      <c r="G917" s="49"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="B918" s="49"/>
+      <c r="C918" s="49"/>
+      <c r="G918" s="49"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="B919" s="49"/>
+      <c r="C919" s="49"/>
+      <c r="G919" s="49"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="B920" s="49"/>
+      <c r="C920" s="49"/>
+      <c r="G920" s="49"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="B921" s="49"/>
+      <c r="C921" s="49"/>
+      <c r="G921" s="49"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="B922" s="49"/>
+      <c r="C922" s="49"/>
+      <c r="G922" s="49"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="B923" s="49"/>
+      <c r="C923" s="49"/>
+      <c r="G923" s="49"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="B924" s="49"/>
+      <c r="C924" s="49"/>
+      <c r="G924" s="49"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="B925" s="49"/>
+      <c r="C925" s="49"/>
+      <c r="G925" s="49"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="B926" s="49"/>
+      <c r="C926" s="49"/>
+      <c r="G926" s="49"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="B927" s="49"/>
+      <c r="C927" s="49"/>
+      <c r="G927" s="49"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="B928" s="49"/>
+      <c r="C928" s="49"/>
+      <c r="G928" s="49"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="B929" s="49"/>
+      <c r="C929" s="49"/>
+      <c r="G929" s="49"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="B930" s="49"/>
+      <c r="C930" s="49"/>
+      <c r="G930" s="49"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="B931" s="49"/>
+      <c r="C931" s="49"/>
+      <c r="G931" s="49"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="B932" s="49"/>
+      <c r="C932" s="49"/>
+      <c r="G932" s="49"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="B933" s="49"/>
+      <c r="C933" s="49"/>
+      <c r="G933" s="49"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="B934" s="49"/>
+      <c r="C934" s="49"/>
+      <c r="G934" s="49"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="B935" s="49"/>
+      <c r="C935" s="49"/>
+      <c r="G935" s="49"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="B936" s="49"/>
+      <c r="C936" s="49"/>
+      <c r="G936" s="49"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="B937" s="49"/>
+      <c r="C937" s="49"/>
+      <c r="G937" s="49"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="B938" s="49"/>
+      <c r="C938" s="49"/>
+      <c r="G938" s="49"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="B939" s="49"/>
+      <c r="C939" s="49"/>
+      <c r="G939" s="49"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="B940" s="49"/>
+      <c r="C940" s="49"/>
+      <c r="G940" s="49"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="B941" s="49"/>
+      <c r="C941" s="49"/>
+      <c r="G941" s="49"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="B942" s="49"/>
+      <c r="C942" s="49"/>
+      <c r="G942" s="49"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="B943" s="49"/>
+      <c r="C943" s="49"/>
+      <c r="G943" s="49"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="B944" s="49"/>
+      <c r="C944" s="49"/>
+      <c r="G944" s="49"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="B945" s="49"/>
+      <c r="C945" s="49"/>
+      <c r="G945" s="49"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="B946" s="49"/>
+      <c r="C946" s="49"/>
+      <c r="G946" s="49"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="B947" s="49"/>
+      <c r="C947" s="49"/>
+      <c r="G947" s="49"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="B948" s="49"/>
+      <c r="C948" s="49"/>
+      <c r="G948" s="49"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="B949" s="49"/>
+      <c r="C949" s="49"/>
+      <c r="G949" s="49"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="B950" s="49"/>
+      <c r="C950" s="49"/>
+      <c r="G950" s="49"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="B951" s="49"/>
+      <c r="C951" s="49"/>
+      <c r="G951" s="49"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="B952" s="49"/>
+      <c r="C952" s="49"/>
+      <c r="G952" s="49"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="B953" s="49"/>
+      <c r="C953" s="49"/>
+      <c r="G953" s="49"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="B954" s="49"/>
+      <c r="C954" s="49"/>
+      <c r="G954" s="49"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="B955" s="49"/>
+      <c r="C955" s="49"/>
+      <c r="G955" s="49"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="B956" s="49"/>
+      <c r="C956" s="49"/>
+      <c r="G956" s="49"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="B957" s="49"/>
+      <c r="C957" s="49"/>
+      <c r="G957" s="49"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="B958" s="49"/>
+      <c r="C958" s="49"/>
+      <c r="G958" s="49"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="B959" s="49"/>
+      <c r="C959" s="49"/>
+      <c r="G959" s="49"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="B960" s="49"/>
+      <c r="C960" s="49"/>
+      <c r="G960" s="49"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="B961" s="49"/>
+      <c r="C961" s="49"/>
+      <c r="G961" s="49"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="B962" s="49"/>
+      <c r="C962" s="49"/>
+      <c r="G962" s="49"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="B963" s="49"/>
+      <c r="C963" s="49"/>
+      <c r="G963" s="49"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="B964" s="49"/>
+      <c r="C964" s="49"/>
+      <c r="G964" s="49"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="B965" s="49"/>
+      <c r="C965" s="49"/>
+      <c r="G965" s="49"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="B966" s="49"/>
+      <c r="C966" s="49"/>
+      <c r="G966" s="49"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="B967" s="49"/>
+      <c r="C967" s="49"/>
+      <c r="G967" s="49"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="B968" s="49"/>
+      <c r="C968" s="49"/>
+      <c r="G968" s="49"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="B969" s="49"/>
+      <c r="C969" s="49"/>
+      <c r="G969" s="49"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="B970" s="49"/>
+      <c r="C970" s="49"/>
+      <c r="G970" s="49"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="B971" s="49"/>
+      <c r="C971" s="49"/>
+      <c r="G971" s="49"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="B972" s="49"/>
+      <c r="C972" s="49"/>
+      <c r="G972" s="49"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="B973" s="49"/>
+      <c r="C973" s="49"/>
+      <c r="G973" s="49"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="B974" s="49"/>
+      <c r="C974" s="49"/>
+      <c r="G974" s="49"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="B975" s="49"/>
+      <c r="C975" s="49"/>
+      <c r="G975" s="49"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="B976" s="49"/>
+      <c r="C976" s="49"/>
+      <c r="G976" s="49"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="B977" s="49"/>
+      <c r="C977" s="49"/>
+      <c r="G977" s="49"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="B978" s="49"/>
+      <c r="C978" s="49"/>
+      <c r="G978" s="49"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="B979" s="49"/>
+      <c r="C979" s="49"/>
+      <c r="G979" s="49"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="B980" s="49"/>
+      <c r="C980" s="49"/>
+      <c r="G980" s="49"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="B981" s="49"/>
+      <c r="C981" s="49"/>
+      <c r="G981" s="49"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="B982" s="49"/>
+      <c r="C982" s="49"/>
+      <c r="G982" s="49"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="B983" s="49"/>
+      <c r="C983" s="49"/>
+      <c r="G983" s="49"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="B984" s="49"/>
+      <c r="C984" s="49"/>
+      <c r="G984" s="49"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="B985" s="49"/>
+      <c r="C985" s="49"/>
+      <c r="G985" s="49"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="B986" s="49"/>
+      <c r="C986" s="49"/>
+      <c r="G986" s="49"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="B987" s="49"/>
+      <c r="C987" s="49"/>
+      <c r="G987" s="49"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="B988" s="49"/>
+      <c r="C988" s="49"/>
+      <c r="G988" s="49"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="B989" s="49"/>
+      <c r="C989" s="49"/>
+      <c r="G989" s="49"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="B990" s="49"/>
+      <c r="C990" s="49"/>
+      <c r="G990" s="49"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="B991" s="49"/>
+      <c r="C991" s="49"/>
+      <c r="G991" s="49"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="B992" s="49"/>
+      <c r="C992" s="49"/>
+      <c r="G992" s="49"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="B993" s="49"/>
+      <c r="C993" s="49"/>
+      <c r="G993" s="49"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="B994" s="49"/>
+      <c r="C994" s="49"/>
+      <c r="G994" s="49"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="B995" s="49"/>
+      <c r="C995" s="49"/>
+      <c r="G995" s="49"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="B996" s="49"/>
+      <c r="C996" s="49"/>
+      <c r="G996" s="49"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="B997" s="49"/>
+      <c r="C997" s="49"/>
+      <c r="G997" s="49"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="B998" s="49"/>
+      <c r="C998" s="49"/>
+      <c r="G998" s="49"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="B999" s="49"/>
+      <c r="C999" s="49"/>
+      <c r="G999" s="49"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="B1000" s="49"/>
+      <c r="C1000" s="49"/>
+      <c r="G1000" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
